--- a/data/reference/what_is_blocked.xlsx
+++ b/data/reference/what_is_blocked.xlsx
@@ -7393,7 +7393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7441,7 +7441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>blm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7451,10 +7451,10 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>31700086</v>
+        <v>3916271</v>
       </c>
       <c r="E2" t="n">
-        <v>867241</v>
+        <v>257617</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -7462,7 +7462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>all lives matter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7472,10 +7472,10 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>41874339</v>
+        <v>33201258</v>
       </c>
       <c r="E3" t="n">
-        <v>599567</v>
+        <v>96716</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -7483,7 +7483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>femme</t>
+          <t>stop the steal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7493,10 +7493,10 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>13888391</v>
+        <v>19563011</v>
       </c>
       <c r="E4" t="n">
-        <v>483157</v>
+        <v>57346</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -7504,7 +7504,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>climate change</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7514,10 +7514,10 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>30237136</v>
+        <v>8687770</v>
       </c>
       <c r="E5" t="n">
-        <v>446133</v>
+        <v>40106</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>straight</t>
+          <t>terrorists</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7535,10 +7535,10 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>42769191</v>
+        <v>7728461</v>
       </c>
       <c r="E6" t="n">
-        <v>376410</v>
+        <v>14494</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>blm</t>
+          <t>blue lives matter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7556,10 +7556,10 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>3916271</v>
+        <v>33232274</v>
       </c>
       <c r="E7" t="n">
-        <v>257617</v>
+        <v>6019</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -7567,7 +7567,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>all lives matter</t>
+          <t>christian fashion</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7577,10 +7577,10 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>33201258</v>
+        <v>20043404</v>
       </c>
       <c r="E8" t="n">
-        <v>96716</v>
+        <v>2221</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>stop the steal</t>
+          <t>hiking gear reviews</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7598,10 +7598,10 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>19563011</v>
+        <v>1599289</v>
       </c>
       <c r="E9" t="n">
-        <v>57346</v>
+        <v>732</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -7609,7 +7609,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>climate change</t>
+          <t>voter fraud</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7619,10 +7619,10 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>8687770</v>
+        <v>2199847</v>
       </c>
       <c r="E10" t="n">
-        <v>40106</v>
+        <v>481</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -7630,7 +7630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lesbian</t>
+          <t>christian parenting</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7640,10 +7640,10 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>5351191</v>
+        <v>3187945</v>
       </c>
       <c r="E11" t="n">
-        <v>38896</v>
+        <v>146</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -7651,20 +7651,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>sharia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>554084</v>
       </c>
       <c r="E12" t="n">
-        <v>22179</v>
+        <v>114</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -7672,7 +7672,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>terrorists</t>
+          <t>jewish fashion</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7682,10 +7682,10 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>7728461</v>
+        <v>4416025</v>
       </c>
       <c r="E13" t="n">
-        <v>14494</v>
+        <v>62</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -7693,7 +7693,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>queer</t>
+          <t>anti-vax</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7703,10 +7703,10 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1669163</v>
+        <v>340458</v>
       </c>
       <c r="E14" t="n">
-        <v>11130</v>
+        <v>59</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -7714,7 +7714,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>blue lives matter</t>
+          <t>terrorists attack</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7724,10 +7724,10 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>33232274</v>
+        <v>1635072</v>
       </c>
       <c r="E15" t="n">
-        <v>6019</v>
+        <v>58</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -7735,7 +7735,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>trans man</t>
+          <t>black nationalism</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7745,10 +7745,10 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>15775814</v>
+        <v>781396</v>
       </c>
       <c r="E16" t="n">
-        <v>4199</v>
+        <v>48</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -7756,7 +7756,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>christian fashion</t>
+          <t>climate denial</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7766,10 +7766,10 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>20043404</v>
+        <v>1587722</v>
       </c>
       <c r="E17" t="n">
-        <v>2221</v>
+        <v>37</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>trans woman</t>
+          <t>black nationalist</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7787,10 +7787,10 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>15557864</v>
+        <v>521576</v>
       </c>
       <c r="E18" t="n">
-        <v>1121</v>
+        <v>30</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -7798,7 +7798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hiking gear reviews</t>
+          <t>buddhist fashion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7808,10 +7808,10 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1599289</v>
+        <v>659566</v>
       </c>
       <c r="E19" t="n">
-        <v>732</v>
+        <v>25</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -7819,7 +7819,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bisexual</t>
+          <t>uyghur genocide</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7829,10 +7829,10 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1016036</v>
+        <v>75452</v>
       </c>
       <c r="E20" t="n">
-        <v>575</v>
+        <v>17</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -7840,7 +7840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>voter fraud</t>
+          <t>anti-vaxx</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7850,10 +7850,10 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>2199847</v>
+        <v>22240</v>
       </c>
       <c r="E21" t="n">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>butch</t>
+          <t>white nationalists</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7871,10 +7871,10 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>2239165</v>
+        <v>184113</v>
       </c>
       <c r="E22" t="n">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -7882,7 +7882,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>asexual</t>
+          <t>rohingya genocide</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7892,10 +7892,10 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>331082</v>
+        <v>248872</v>
       </c>
       <c r="E23" t="n">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -7903,7 +7903,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>christian parenting</t>
+          <t>terrorists hostage</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7913,10 +7913,10 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>3187945</v>
+        <v>1606098</v>
       </c>
       <c r="E24" t="n">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -7924,7 +7924,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sharia</t>
+          <t>terrorists acts</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7934,10 +7934,10 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>554084</v>
+        <v>1604563</v>
       </c>
       <c r="E25" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -7945,20 +7945,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>transsexual</t>
+          <t>yazidi genocide</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
+        <v>26672</v>
+      </c>
+      <c r="E26" t="n">
         <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>107</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -7966,7 +7966,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pansexual</t>
+          <t>terrorists recruitment</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -7976,10 +7976,10 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>106907</v>
+        <v>210804</v>
       </c>
       <c r="E27" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gender expression</t>
+          <t>black chrsitian</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -7997,10 +7997,10 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>5765101</v>
+        <v>413</v>
       </c>
       <c r="E28" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -8008,511 +8008,595 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>heterosexual</t>
+          <t>sexual education</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>228651</v>
-      </c>
-      <c r="E29" t="n">
-        <v>88</v>
-      </c>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>intersexual</t>
+          <t>sex positive</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>76</v>
-      </c>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jewish fashion</t>
+          <t>neo nazi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>4416025</v>
-      </c>
-      <c r="E31" t="n">
-        <v>62</v>
-      </c>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>genderfluid</t>
+          <t>ww2 nazis</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>59</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>849</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>anti-vax</t>
+          <t>white pills</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>340458</v>
-      </c>
-      <c r="E33" t="n">
-        <v>59</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>8049</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>terrorists attack</t>
+          <t>white christian</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
-        <v>1635072</v>
-      </c>
-      <c r="E34" t="n">
-        <v>58</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>40699</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>intersex</t>
+          <t>terrorism attack</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>88630</v>
-      </c>
-      <c r="E35" t="n">
-        <v>48</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>11498</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>black nationalism</t>
+          <t>terrorism acts</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
-        <v>781396</v>
-      </c>
-      <c r="E36" t="n">
-        <v>48</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>374</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>climate denial</t>
+          <t>stolen election</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>1587722</v>
-      </c>
-      <c r="E37" t="n">
-        <v>37</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>11271</v>
+      </c>
+      <c r="G37" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>black nationalist</t>
+          <t>recruit terrorist</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>521576</v>
-      </c>
-      <c r="E38" t="n">
-        <v>30</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>29</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>demisexual</t>
+          <t>praise terrorist</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>17065</v>
-      </c>
-      <c r="E39" t="n">
-        <v>25</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>buddhist fashion</t>
+          <t>praise terrorism</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>659566</v>
-      </c>
-      <c r="E40" t="n">
-        <v>25</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cisgender</t>
+          <t>nazi scientist</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>36431</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>815</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>uyghur genocide</t>
+          <t>nazi propoganda</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>75452</v>
-      </c>
-      <c r="E42" t="n">
-        <v>17</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>320</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>anti-vaxx</t>
+          <t>nazi germany</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>22240</v>
-      </c>
-      <c r="E43" t="n">
-        <v>17</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>transgendered</t>
+          <t>nazi extermination camps</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>65309</v>
-      </c>
-      <c r="E44" t="n">
-        <v>16</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>442</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>white nationalists</t>
+          <t>muslim ttszozjqoits</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>184113</v>
-      </c>
-      <c r="E45" t="n">
-        <v>15</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rohingya genocide</t>
+          <t>jewish solidarity</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v>248872</v>
-      </c>
-      <c r="E46" t="n">
-        <v>14</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>347</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>terrorists hostage</t>
+          <t>jewish parenting</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
-        <v>1606098</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>425</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>terrorists acts</t>
+          <t>jewish american</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
-        <v>1604563</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>29074</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bigender</t>
+          <t>christian solidarity</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>411</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>yazidi genocide</t>
+          <t>christian american</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v>26672</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>16044</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>terrorists recruitment</t>
+          <t>buddhist parenting</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>210804</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>black chrsitian</t>
+          <t>buddhist american</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
-        <v>413</v>
-      </c>
-      <c r="E52" t="n">
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>58</v>
+      </c>
+      <c r="G52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sexual education</t>
+          <t>black muslims</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8522,18 +8606,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>10449</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sex positive</t>
+          <t>black jew</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8543,18 +8631,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>22622</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>neo nazi</t>
+          <t>black christian</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8564,18 +8656,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>41378</v>
+      </c>
+      <c r="G55" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ww2 nazis</t>
+          <t>black buddhist</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8591,16 +8687,16 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>849</v>
+        <v>3692</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>white pills</t>
+          <t>american muslims</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8616,16 +8712,16 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>8049</v>
+        <v>56316</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>white christian</t>
+          <t>wetbacks</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8633,24 +8729,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>40699</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>terrorism attack</t>
+          <t>sexuality</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8658,24 +8746,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
-        <v>11498</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>terrorism acts</t>
+          <t>scientology</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8683,24 +8763,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
-        <v>374</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stolen election</t>
+          <t>niggers</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8708,24 +8780,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
-        <v>11271</v>
-      </c>
-      <c r="G61" t="n">
-        <v>16</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>recruit terrorist</t>
+          <t>neonazi</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8733,24 +8797,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
-        <v>29</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>praise terrorist</t>
+          <t>neo-nazis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8758,24 +8814,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
-        <v>15</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>praise terrorism</t>
+          <t>neo-confederates</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8783,24 +8831,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
-        <v>3</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>nazi scientist</t>
+          <t>nazism</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8808,24 +8848,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>815</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nazi propoganda</t>
+          <t>nazis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8833,24 +8865,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>320</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>nazi germany</t>
+          <t>kikes</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8858,24 +8882,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>46</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nazi extermination camps</t>
+          <t>buddhist</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8883,24 +8899,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
-        <v>442</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>muslim ttszozjqoits</t>
+          <t>buddhism</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8908,557 +8916,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>jewish solidarity</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
-        <v>347</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>jewish parenting</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="n">
-        <v>425</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>jewish american</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
-        <v>29074</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>christian solidarity</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
-        <v>411</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>christian american</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
-        <v>16044</v>
-      </c>
-      <c r="G74" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>buddhist parenting</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="n">
-        <v>16</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>buddhist american</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="n">
-        <v>58</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>black muslims</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="n">
-        <v>10449</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>black jew</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="n">
-        <v>22622</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>black christian</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
-        <v>41378</v>
-      </c>
-      <c r="G79" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>black buddhist</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>3692</v>
-      </c>
-      <c r="G80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>american muslims</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
-        <v>56316</v>
-      </c>
-      <c r="G81" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>wetbacks</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>sexuality</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>sexual identity</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>scientology</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>niggers</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>neonazi</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>neo-nazis</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>neo-confederates</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>nazism</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>nazis</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>kikes</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>homosexual</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>buddhist</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>buddhism</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9471,7 +8933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9960,20 +9422,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>shops</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>158565282</v>
       </c>
       <c r="E23" t="n">
-        <v>1759075</v>
+        <v>1758283</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -9981,7 +9443,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>shops</t>
+          <t>scenes</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9991,10 +9453,10 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>158565282</v>
+        <v>191100269</v>
       </c>
       <c r="E24" t="n">
-        <v>1758283</v>
+        <v>1754704</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -10002,7 +9464,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>scenes</t>
+          <t>now</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -10012,10 +9474,10 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>191100269</v>
+        <v>472527331</v>
       </c>
       <c r="E25" t="n">
-        <v>1754704</v>
+        <v>1749949</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -10023,7 +9485,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>die</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -10033,10 +9495,10 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>472527331</v>
+        <v>184007509</v>
       </c>
       <c r="E26" t="n">
-        <v>1749949</v>
+        <v>1744993</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -10044,7 +9506,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>die</t>
+          <t>don't</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -10054,10 +9516,10 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>184007509</v>
+        <v>274758373</v>
       </c>
       <c r="E27" t="n">
-        <v>1744993</v>
+        <v>1736803</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -10065,7 +9527,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>don't</t>
+          <t>high</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -10075,10 +9537,10 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>274758373</v>
+        <v>296760562</v>
       </c>
       <c r="E28" t="n">
-        <v>1736803</v>
+        <v>1724812</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -10086,7 +9548,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -10096,10 +9558,10 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>296760562</v>
+        <v>121785047</v>
       </c>
       <c r="E29" t="n">
-        <v>1724812</v>
+        <v>1722847</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -10107,7 +9569,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -10117,10 +9579,10 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>121785047</v>
+        <v>1225184207</v>
       </c>
       <c r="E30" t="n">
-        <v>1722847</v>
+        <v>1710541</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -10128,7 +9590,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>photo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -10138,10 +9600,10 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>1225184207</v>
+        <v>104337195</v>
       </c>
       <c r="E31" t="n">
-        <v>1710541</v>
+        <v>1710359</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -10149,7 +9611,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>black</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -10159,10 +9621,10 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>104337195</v>
+        <v>361696056</v>
       </c>
       <c r="E32" t="n">
-        <v>1710359</v>
+        <v>1708367</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -10170,7 +9632,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>work</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -10180,10 +9642,10 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>361696056</v>
+        <v>368021848</v>
       </c>
       <c r="E33" t="n">
-        <v>1708367</v>
+        <v>1706778</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -10191,7 +9653,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>your</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -10201,10 +9663,10 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>368021848</v>
+        <v>711557048</v>
       </c>
       <c r="E34" t="n">
-        <v>1706778</v>
+        <v>1706226</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -10212,7 +9674,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -10222,10 +9684,10 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>711557048</v>
+        <v>87153766</v>
       </c>
       <c r="E35" t="n">
-        <v>1706226</v>
+        <v>1700166</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -10233,7 +9695,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -10243,10 +9705,10 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>87153766</v>
+        <v>166411782</v>
       </c>
       <c r="E36" t="n">
-        <v>1700166</v>
+        <v>1695384</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -10254,7 +9716,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>ever</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -10264,10 +9726,10 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>166411782</v>
+        <v>226733785</v>
       </c>
       <c r="E37" t="n">
-        <v>1695384</v>
+        <v>1689786</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -10275,7 +9737,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ever</t>
+          <t>white</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -10285,10 +9747,10 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>226733785</v>
+        <v>176161813</v>
       </c>
       <c r="E38" t="n">
-        <v>1689786</v>
+        <v>1685497</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -10296,7 +9758,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>content</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -10306,10 +9768,10 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>176161813</v>
+        <v>76797422</v>
       </c>
       <c r="E39" t="n">
-        <v>1685497</v>
+        <v>1685226</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -10317,7 +9779,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>party</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -10327,10 +9789,10 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>76797422</v>
+        <v>228711013</v>
       </c>
       <c r="E40" t="n">
-        <v>1685226</v>
+        <v>1631369</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -10338,7 +9800,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>you'll</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -10348,10 +9810,10 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>325125526</v>
+        <v>202525524</v>
       </c>
       <c r="E41" t="n">
-        <v>1667586</v>
+        <v>1624979</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -10359,7 +9821,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>party</t>
+          <t>question</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -10369,10 +9831,10 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>228711013</v>
+        <v>133704328</v>
       </c>
       <c r="E42" t="n">
-        <v>1631369</v>
+        <v>1581587</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -10380,7 +9842,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>you'll</t>
+          <t>war</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -10390,10 +9852,10 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>202525524</v>
+        <v>204126340</v>
       </c>
       <c r="E43" t="n">
-        <v>1624979</v>
+        <v>1558170</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -10401,7 +9863,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>power</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10411,10 +9873,10 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>133704328</v>
+        <v>197268441</v>
       </c>
       <c r="E44" t="n">
-        <v>1581587</v>
+        <v>1549346</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -10422,7 +9884,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -10432,10 +9894,10 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>204126340</v>
+        <v>105479214</v>
       </c>
       <c r="E45" t="n">
-        <v>1558170</v>
+        <v>1545637</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -10443,7 +9905,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>services</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -10453,10 +9915,10 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>197268441</v>
+        <v>125881065</v>
       </c>
       <c r="E46" t="n">
-        <v>1549346</v>
+        <v>1481951</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -10464,7 +9926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -10474,10 +9936,10 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>105479214</v>
+        <v>94893783</v>
       </c>
       <c r="E47" t="n">
-        <v>1545637</v>
+        <v>1432088</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -10485,7 +9947,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>race</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10495,10 +9957,10 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>125881065</v>
+        <v>173672511</v>
       </c>
       <c r="E48" t="n">
-        <v>1481951</v>
+        <v>1431789</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -10506,7 +9968,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -10516,10 +9978,10 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>94893783</v>
+        <v>161138171</v>
       </c>
       <c r="E49" t="n">
-        <v>1432088</v>
+        <v>1375355</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -10527,7 +9989,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10537,10 +9999,10 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>173672511</v>
+        <v>144345659</v>
       </c>
       <c r="E50" t="n">
-        <v>1431789</v>
+        <v>1354498</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -10548,7 +10010,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>dark</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10558,10 +10020,10 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>161138171</v>
+        <v>124353555</v>
       </c>
       <c r="E51" t="n">
-        <v>1375355</v>
+        <v>1337206</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -10569,7 +10031,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10579,10 +10041,10 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>144345659</v>
+        <v>174857698</v>
       </c>
       <c r="E52" t="n">
-        <v>1354498</v>
+        <v>1315410</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -10590,7 +10052,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>3d</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10600,10 +10062,10 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>124353555</v>
+        <v>94491931</v>
       </c>
       <c r="E53" t="n">
-        <v>1337206</v>
+        <v>1296711</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -10611,7 +10073,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10621,10 +10083,10 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>174857698</v>
+        <v>160394097</v>
       </c>
       <c r="E54" t="n">
-        <v>1315410</v>
+        <v>1281398</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -10632,7 +10094,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3d</t>
+          <t>fighting</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10642,10 +10104,10 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>94491931</v>
+        <v>90361251</v>
       </c>
       <c r="E55" t="n">
-        <v>1296711</v>
+        <v>1263372</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -10653,7 +10115,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>kits</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10663,10 +10125,10 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>160394097</v>
+        <v>73800669</v>
       </c>
       <c r="E56" t="n">
-        <v>1281398</v>
+        <v>1247376</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -10674,7 +10136,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>fighting</t>
+          <t>toys</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10684,10 +10146,10 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>90361251</v>
+        <v>158365762</v>
       </c>
       <c r="E57" t="n">
-        <v>1263372</v>
+        <v>1168700</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -10695,7 +10157,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>kits</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10705,10 +10167,10 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>73800669</v>
+        <v>61953290</v>
       </c>
       <c r="E58" t="n">
-        <v>1247376</v>
+        <v>1163621</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -10716,7 +10178,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>toys</t>
+          <t>stand</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10726,10 +10188,10 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>158365762</v>
+        <v>85139681</v>
       </c>
       <c r="E59" t="n">
-        <v>1168700</v>
+        <v>1125189</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -10737,7 +10199,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>fashion</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -10747,10 +10209,10 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>61953290</v>
+        <v>63524011</v>
       </c>
       <c r="E60" t="n">
-        <v>1163621</v>
+        <v>1100305</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -10758,7 +10220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -10768,10 +10230,10 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>85139681</v>
+        <v>60911479</v>
       </c>
       <c r="E61" t="n">
-        <v>1125189</v>
+        <v>1047395</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -10779,7 +10241,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>nation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -10789,10 +10251,10 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>63524011</v>
+        <v>51750735</v>
       </c>
       <c r="E62" t="n">
-        <v>1100305</v>
+        <v>983559</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -10800,7 +10262,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>wild</t>
+          <t>card</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -10810,10 +10272,10 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>88085913</v>
+        <v>100356387</v>
       </c>
       <c r="E63" t="n">
-        <v>1081965</v>
+        <v>937632</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -10821,7 +10283,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>papers</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -10831,10 +10293,10 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>60911479</v>
+        <v>78099634</v>
       </c>
       <c r="E64" t="n">
-        <v>1047395</v>
+        <v>934054</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -10842,7 +10304,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>nation</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -10852,10 +10314,10 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>51750735</v>
+        <v>69291870</v>
       </c>
       <c r="E65" t="n">
-        <v>983559</v>
+        <v>922832</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -10863,7 +10325,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>card</t>
+          <t>hunt</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -10873,10 +10335,10 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>100356387</v>
+        <v>106981790</v>
       </c>
       <c r="E66" t="n">
-        <v>937632</v>
+        <v>889129</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -10884,7 +10346,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>papers</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -10894,10 +10356,10 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>78099634</v>
+        <v>34775608</v>
       </c>
       <c r="E67" t="n">
-        <v>934054</v>
+        <v>876997</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -10905,7 +10367,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -10915,10 +10377,10 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>69291870</v>
+        <v>54166690</v>
       </c>
       <c r="E68" t="n">
-        <v>922832</v>
+        <v>866068</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -10926,7 +10388,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>hunt</t>
+          <t>text</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -10936,10 +10398,10 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>106981790</v>
+        <v>47057823</v>
       </c>
       <c r="E69" t="n">
-        <v>889129</v>
+        <v>843936</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -10947,7 +10409,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>camps</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -10957,10 +10419,10 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>34775608</v>
+        <v>62218691</v>
       </c>
       <c r="E70" t="n">
-        <v>876997</v>
+        <v>835091</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -10968,7 +10430,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>ban</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -10978,10 +10440,10 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>54166690</v>
+        <v>59812533</v>
       </c>
       <c r="E71" t="n">
-        <v>866068</v>
+        <v>834529</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -10989,7 +10451,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10999,10 +10461,10 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>47057823</v>
+        <v>37444653</v>
       </c>
       <c r="E72" t="n">
-        <v>843936</v>
+        <v>827245</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -11010,7 +10472,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>camps</t>
+          <t>worldwide</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -11020,10 +10482,10 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>62218691</v>
+        <v>19023783</v>
       </c>
       <c r="E73" t="n">
-        <v>835091</v>
+        <v>762727</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -11031,7 +10493,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ban</t>
+          <t>acts</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -11041,10 +10503,10 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>59812533</v>
+        <v>74249808</v>
       </c>
       <c r="E74" t="n">
-        <v>834529</v>
+        <v>719430</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -11052,7 +10514,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -11062,10 +10524,10 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>37444653</v>
+        <v>66609252</v>
       </c>
       <c r="E75" t="n">
-        <v>827245</v>
+        <v>690053</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -11073,7 +10535,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>skin</t>
+          <t>mod</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -11083,10 +10545,10 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>100005177</v>
+        <v>105593167</v>
       </c>
       <c r="E76" t="n">
-        <v>794977</v>
+        <v>682896</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -11094,7 +10556,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>worldwide</t>
+          <t>doesn't</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -11104,10 +10566,10 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>19023783</v>
+        <v>49137898</v>
       </c>
       <c r="E77" t="n">
-        <v>762727</v>
+        <v>651108</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -11115,7 +10577,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>acts</t>
+          <t>device</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -11125,10 +10587,10 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>74249808</v>
+        <v>61941962</v>
       </c>
       <c r="E78" t="n">
-        <v>719430</v>
+        <v>614707</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -11136,7 +10598,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>attack</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11146,10 +10608,10 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>66609252</v>
+        <v>106228194</v>
       </c>
       <c r="E79" t="n">
-        <v>690053</v>
+        <v>604465</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -11157,7 +10619,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mod</t>
+          <t>stocks</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11167,10 +10629,10 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>105593167</v>
+        <v>57896933</v>
       </c>
       <c r="E80" t="n">
-        <v>682896</v>
+        <v>603997</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -11178,7 +10640,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>advice</t>
+          <t>print</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11188,10 +10650,10 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>30662062</v>
+        <v>34669355</v>
       </c>
       <c r="E81" t="n">
-        <v>672740</v>
+        <v>596285</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -11199,7 +10661,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>doesn't</t>
+          <t>selling</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11209,10 +10671,10 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>49137898</v>
+        <v>24829284</v>
       </c>
       <c r="E82" t="n">
-        <v>651108</v>
+        <v>476418</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -11220,7 +10682,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11230,10 +10692,10 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>61941962</v>
+        <v>35588905</v>
       </c>
       <c r="E83" t="n">
-        <v>614707</v>
+        <v>468350</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -11241,7 +10703,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11251,10 +10713,10 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>106228194</v>
+        <v>33272882</v>
       </c>
       <c r="E84" t="n">
-        <v>604465</v>
+        <v>457276</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -11262,7 +10724,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>stocks</t>
+          <t>pens</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11272,10 +10734,10 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>57896933</v>
+        <v>28066476</v>
       </c>
       <c r="E85" t="n">
-        <v>603997</v>
+        <v>446264</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -11283,7 +10745,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>print</t>
+          <t>package</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11293,10 +10755,10 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>34669355</v>
+        <v>29592846</v>
       </c>
       <c r="E86" t="n">
-        <v>596285</v>
+        <v>442716</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -11304,7 +10766,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>selling</t>
+          <t>terror</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -11314,10 +10776,10 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>24829284</v>
+        <v>27878366</v>
       </c>
       <c r="E87" t="n">
-        <v>476418</v>
+        <v>415192</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -11325,7 +10787,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -11335,10 +10797,10 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>35588905</v>
+        <v>41318104</v>
       </c>
       <c r="E88" t="n">
-        <v>468350</v>
+        <v>399373</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -11346,7 +10808,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11356,10 +10818,10 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>33272882</v>
+        <v>34027481</v>
       </c>
       <c r="E89" t="n">
-        <v>457276</v>
+        <v>396356</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -11367,7 +10829,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>pens</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -11377,10 +10839,10 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>28066476</v>
+        <v>23102079</v>
       </c>
       <c r="E90" t="n">
-        <v>446264</v>
+        <v>366583</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -11388,7 +10850,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>package</t>
+          <t>justice</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11398,10 +10860,10 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>29592846</v>
+        <v>26691063</v>
       </c>
       <c r="E91" t="n">
-        <v>442716</v>
+        <v>365910</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -11409,7 +10871,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>terror</t>
+          <t>leaks</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11419,10 +10881,10 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>27878366</v>
+        <v>33398701</v>
       </c>
       <c r="E92" t="n">
-        <v>415192</v>
+        <v>347891</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -11430,7 +10892,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>conversion</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -11440,10 +10902,10 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>41318104</v>
+        <v>30910635</v>
       </c>
       <c r="E93" t="n">
-        <v>399373</v>
+        <v>326971</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -11451,7 +10913,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>5g</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -11461,10 +10923,10 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>34027481</v>
+        <v>5118659</v>
       </c>
       <c r="E94" t="n">
-        <v>396356</v>
+        <v>314791</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -11472,7 +10934,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>prayer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -11482,10 +10944,10 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>23102079</v>
+        <v>52426946</v>
       </c>
       <c r="E95" t="n">
-        <v>366583</v>
+        <v>282755</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -11493,7 +10955,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>justice</t>
+          <t>dual</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -11503,10 +10965,10 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>26691063</v>
+        <v>33257708</v>
       </c>
       <c r="E96" t="n">
-        <v>365910</v>
+        <v>266195</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -11514,7 +10976,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>leaks</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -11524,10 +10986,10 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>33398701</v>
+        <v>21132114</v>
       </c>
       <c r="E97" t="n">
-        <v>347891</v>
+        <v>256346</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -11535,7 +10997,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>conversion</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11545,10 +11007,10 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>30910635</v>
+        <v>14952450</v>
       </c>
       <c r="E98" t="n">
-        <v>326971</v>
+        <v>254946</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -11556,7 +11018,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5g</t>
+          <t>minors</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11566,10 +11028,10 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>5118659</v>
+        <v>26807817</v>
       </c>
       <c r="E99" t="n">
-        <v>314791</v>
+        <v>243467</v>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -11577,7 +11039,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>prayer</t>
+          <t>stolen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11587,10 +11049,10 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>52426946</v>
+        <v>17785745</v>
       </c>
       <c r="E100" t="n">
-        <v>282755</v>
+        <v>238368</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -11598,7 +11060,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dual</t>
+          <t>miracle</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11608,10 +11070,10 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>33257708</v>
+        <v>31109002</v>
       </c>
       <c r="E101" t="n">
-        <v>266195</v>
+        <v>229128</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -11619,7 +11081,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>threads</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11629,10 +11091,10 @@
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>21132114</v>
+        <v>10897754</v>
       </c>
       <c r="E102" t="n">
-        <v>256346</v>
+        <v>193703</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -11640,7 +11102,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>vaccine</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11650,10 +11112,10 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>14952450</v>
+        <v>5723146</v>
       </c>
       <c r="E103" t="n">
-        <v>254946</v>
+        <v>191382</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -11661,7 +11123,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>minors</t>
+          <t>praise</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -11671,10 +11133,10 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>26807817</v>
+        <v>30475089</v>
       </c>
       <c r="E104" t="n">
-        <v>243467</v>
+        <v>164227</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -11682,7 +11144,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>stolen</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -11692,10 +11154,10 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>17785745</v>
+        <v>15940801</v>
       </c>
       <c r="E105" t="n">
-        <v>238368</v>
+        <v>155759</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -11703,7 +11165,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>miracle</t>
+          <t>abuse</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -11713,10 +11175,10 @@
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>31109002</v>
+        <v>10435651</v>
       </c>
       <c r="E106" t="n">
-        <v>229128</v>
+        <v>151652</v>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -11724,7 +11186,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>threads</t>
+          <t>automatic</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -11734,10 +11196,10 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>10897754</v>
+        <v>36879326</v>
       </c>
       <c r="E107" t="n">
-        <v>193703</v>
+        <v>142656</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -11745,7 +11207,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>vaccine</t>
+          <t>ww2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -11755,10 +11217,10 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>5723146</v>
+        <v>10605118</v>
       </c>
       <c r="E108" t="n">
-        <v>191382</v>
+        <v>141243</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -11766,20 +11228,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>praise</t>
+          <t>recruitment</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>30475089</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>164227</v>
+        <v>109007</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -11787,7 +11249,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>radical</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -11797,10 +11259,10 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>15940801</v>
+        <v>9679115</v>
       </c>
       <c r="E110" t="n">
-        <v>155759</v>
+        <v>108162</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -11808,7 +11270,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>abuse</t>
+          <t>ritual</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -11818,10 +11280,10 @@
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>10435651</v>
+        <v>13636419</v>
       </c>
       <c r="E111" t="n">
-        <v>151652</v>
+        <v>107184</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -11829,7 +11291,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>automatic</t>
+          <t>fluids</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -11839,10 +11301,10 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>36879326</v>
+        <v>8434406</v>
       </c>
       <c r="E112" t="n">
-        <v>142656</v>
+        <v>104531</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -11850,7 +11312,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ww2</t>
+          <t>organs</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -11860,10 +11322,10 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>10605118</v>
+        <v>14848036</v>
       </c>
       <c r="E113" t="n">
-        <v>141243</v>
+        <v>90338</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -11871,20 +11333,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>recruitment</t>
+          <t>scopes</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>13392836</v>
       </c>
       <c r="E114" t="n">
-        <v>109007</v>
+        <v>89022</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -11892,7 +11354,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>radical</t>
+          <t>generate</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -11902,10 +11364,10 @@
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>9679115</v>
+        <v>104739403</v>
       </c>
       <c r="E115" t="n">
-        <v>108162</v>
+        <v>87639</v>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -11913,7 +11375,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ritual</t>
+          <t>parenting</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -11923,10 +11385,10 @@
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>13636419</v>
+        <v>3590994</v>
       </c>
       <c r="E116" t="n">
-        <v>107184</v>
+        <v>79785</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -11934,7 +11396,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>fluids</t>
+          <t>remedy</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -11944,10 +11406,10 @@
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>8434406</v>
+        <v>18453089</v>
       </c>
       <c r="E117" t="n">
-        <v>104531</v>
+        <v>61824</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -11955,7 +11417,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>organs</t>
+          <t>salve</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -11965,10 +11427,10 @@
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>14848036</v>
+        <v>6891528</v>
       </c>
       <c r="E118" t="n">
-        <v>90338</v>
+        <v>53117</v>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -11976,7 +11438,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>scopes</t>
+          <t>recruit</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -11986,10 +11448,10 @@
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>13392836</v>
+        <v>10581751</v>
       </c>
       <c r="E119" t="n">
-        <v>89022</v>
+        <v>46502</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
@@ -11997,7 +11459,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>generate</t>
+          <t>execution</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -12007,10 +11469,10 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>104739403</v>
+        <v>9018680</v>
       </c>
       <c r="E120" t="n">
-        <v>87639</v>
+        <v>41729</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -12018,7 +11480,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>guaranteed</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -12028,10 +11490,10 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>3590994</v>
+        <v>9166860</v>
       </c>
       <c r="E121" t="n">
-        <v>79785</v>
+        <v>40872</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -12039,7 +11501,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>remedy</t>
+          <t>chewing</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -12049,10 +11511,10 @@
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>18453089</v>
+        <v>5682456</v>
       </c>
       <c r="E122" t="n">
-        <v>61824</v>
+        <v>30581</v>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -12060,7 +11522,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>salve</t>
+          <t>vest</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -12070,10 +11532,10 @@
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>6891528</v>
+        <v>4074175</v>
       </c>
       <c r="E123" t="n">
-        <v>53117</v>
+        <v>28058</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -12081,7 +11543,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>recruit</t>
+          <t>capacity</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -12091,10 +11553,10 @@
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>10581751</v>
+        <v>8396729</v>
       </c>
       <c r="E124" t="n">
-        <v>46502</v>
+        <v>27740</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
@@ -12102,7 +11564,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>execution</t>
+          <t>hitler</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -12112,10 +11574,10 @@
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>9018680</v>
+        <v>5603467</v>
       </c>
       <c r="E125" t="n">
-        <v>41729</v>
+        <v>25132</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -12123,7 +11585,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>guaranteed</t>
+          <t>denial</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -12133,10 +11595,10 @@
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>9166860</v>
+        <v>5521471</v>
       </c>
       <c r="E126" t="n">
-        <v>40872</v>
+        <v>19787</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
@@ -12144,7 +11606,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>chewing</t>
+          <t>harassment</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -12154,10 +11616,10 @@
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>5682456</v>
+        <v>4069417</v>
       </c>
       <c r="E127" t="n">
-        <v>30581</v>
+        <v>9826</v>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -12165,7 +11627,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vest</t>
+          <t>aryan</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -12175,10 +11637,10 @@
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>4074175</v>
+        <v>5609990</v>
       </c>
       <c r="E128" t="n">
-        <v>28058</v>
+        <v>5005</v>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
@@ -12186,7 +11648,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>capacity</t>
+          <t>unwanted</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -12196,10 +11658,10 @@
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>8396729</v>
+        <v>2730260</v>
       </c>
       <c r="E129" t="n">
-        <v>27740</v>
+        <v>4539</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -12207,7 +11669,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hitler</t>
+          <t>hostages</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -12217,10 +11679,10 @@
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>5603467</v>
+        <v>3279111</v>
       </c>
       <c r="E130" t="n">
-        <v>25132</v>
+        <v>3174</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -12228,7 +11690,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>denial</t>
+          <t>genocide</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -12238,10 +11700,10 @@
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>5521471</v>
+        <v>2793974</v>
       </c>
       <c r="E131" t="n">
-        <v>19787</v>
+        <v>2225</v>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
@@ -12249,7 +11711,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>harassment</t>
+          <t>liberation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -12259,10 +11721,10 @@
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>4069417</v>
+        <v>2995718</v>
       </c>
       <c r="E132" t="n">
-        <v>9826</v>
+        <v>1826</v>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
@@ -12270,7 +11732,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>utilize</t>
+          <t>silencer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -12280,10 +11742,10 @@
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>5558083</v>
+        <v>2399434</v>
       </c>
       <c r="E133" t="n">
-        <v>7484</v>
+        <v>1308</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -12291,7 +11753,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>aryan</t>
+          <t>sieg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -12301,10 +11763,10 @@
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>5609990</v>
+        <v>2270018</v>
       </c>
       <c r="E134" t="n">
-        <v>5005</v>
+        <v>774</v>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
@@ -12312,7 +11774,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>unwanted</t>
+          <t>supremacy</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -12322,10 +11784,10 @@
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>2730260</v>
+        <v>2040264</v>
       </c>
       <c r="E135" t="n">
-        <v>4539</v>
+        <v>640</v>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
@@ -12333,20 +11795,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>hostages</t>
+          <t>nationalist</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>3279111</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>3174</v>
+        <v>594</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -12354,7 +11816,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>genocide</t>
+          <t>ideology</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -12364,10 +11826,10 @@
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>2793974</v>
+        <v>1840697</v>
       </c>
       <c r="E137" t="n">
-        <v>2225</v>
+        <v>465</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -12375,7 +11837,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>liberation</t>
+          <t>ilhan</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -12385,10 +11847,10 @@
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>2995718</v>
+        <v>1223731</v>
       </c>
       <c r="E138" t="n">
-        <v>1826</v>
+        <v>350</v>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
@@ -12396,7 +11858,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>silencer</t>
+          <t>solidarity</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -12406,10 +11868,10 @@
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>2399434</v>
+        <v>1516953</v>
       </c>
       <c r="E139" t="n">
-        <v>1308</v>
+        <v>345</v>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
@@ -12417,7 +11879,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sieg</t>
+          <t>incorrect</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -12427,10 +11889,10 @@
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>2270018</v>
+        <v>1924633</v>
       </c>
       <c r="E140" t="n">
-        <v>774</v>
+        <v>309</v>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
@@ -12438,7 +11900,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>supremacy</t>
+          <t>heil</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -12448,10 +11910,10 @@
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>2040264</v>
+        <v>924748</v>
       </c>
       <c r="E141" t="n">
-        <v>640</v>
+        <v>212</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -12459,20 +11921,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nationalist</t>
+          <t>extermination</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>1030671</v>
       </c>
       <c r="E142" t="n">
-        <v>594</v>
+        <v>141</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -12480,7 +11942,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ideology</t>
+          <t>kaepernick</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -12490,10 +11952,10 @@
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>1840697</v>
+        <v>471972</v>
       </c>
       <c r="E143" t="n">
-        <v>465</v>
+        <v>117</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
@@ -12501,7 +11963,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ilhan</t>
+          <t>bullfighting</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -12511,10 +11973,10 @@
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>1223731</v>
+        <v>468637</v>
       </c>
       <c r="E144" t="n">
-        <v>350</v>
+        <v>97</v>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
@@ -12522,7 +11984,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>solidarity</t>
+          <t>globalist</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -12532,10 +11994,10 @@
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>1516953</v>
+        <v>337811</v>
       </c>
       <c r="E145" t="n">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -12543,7 +12005,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>incorrect</t>
+          <t>gratification</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -12553,10 +12015,10 @@
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>1924633</v>
+        <v>377321</v>
       </c>
       <c r="E146" t="n">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -12564,7 +12026,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>heil</t>
+          <t>dramatized</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -12574,10 +12036,10 @@
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>924748</v>
+        <v>583369</v>
       </c>
       <c r="E147" t="n">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -12585,7 +12047,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>extermination</t>
+          <t>assult</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -12595,10 +12057,10 @@
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>1030671</v>
+        <v>192087</v>
       </c>
       <c r="E148" t="n">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -12606,7 +12068,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>kaepernick</t>
+          <t>explict</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -12616,10 +12078,10 @@
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>471972</v>
+        <v>151386</v>
       </c>
       <c r="E149" t="n">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -12627,7 +12089,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>bullfighting</t>
+          <t>propoganda</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -12637,10 +12099,10 @@
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>468637</v>
+        <v>49689</v>
       </c>
       <c r="E150" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -12648,7 +12110,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>globalist</t>
+          <t>unwatned</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -12658,10 +12120,10 @@
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>337811</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -12669,20 +12131,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>gratification</t>
+          <t>ttszozjqoits</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>377321</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -12690,175 +12152,143 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dramatized</t>
+          <t>wetbacks</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="n">
-        <v>583369</v>
-      </c>
-      <c r="E153" t="n">
-        <v>44</v>
-      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>assult</t>
+          <t>wetback</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="n">
-        <v>192087</v>
-      </c>
-      <c r="E154" t="n">
-        <v>31</v>
-      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>explict</t>
+          <t>weed</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="n">
-        <v>151386</v>
-      </c>
-      <c r="E155" t="n">
-        <v>17</v>
-      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>propoganda</t>
+          <t>voyeurism</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="n">
-        <v>49689</v>
-      </c>
-      <c r="E156" t="n">
-        <v>15</v>
-      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>unlinked</t>
+          <t>vote</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="n">
-        <v>38490</v>
-      </c>
-      <c r="E157" t="n">
-        <v>3</v>
-      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>unblended</t>
+          <t>vaping</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="n">
-        <v>7231</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1</v>
-      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>unwatned</t>
+          <t>vapes</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="n">
-        <v>45</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ttszozjqoits</t>
+          <t>vape</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>wetbacks</t>
+          <t>upskirt</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -12875,7 +12305,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>wetback</t>
+          <t>tobacco</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -12892,7 +12322,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>weed</t>
+          <t>terrorist</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -12909,7 +12339,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>voyeurism</t>
+          <t>terrorism</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -12926,7 +12356,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vote</t>
+          <t>swords</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -12943,7 +12373,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>vaping</t>
+          <t>suicide</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12960,7 +12390,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vapes</t>
+          <t>stormfront</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12977,7 +12407,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vape</t>
+          <t>steroids</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12994,7 +12424,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>upskirt</t>
+          <t>sexually</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -13011,7 +12441,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>tobacco</t>
+          <t>sexuality</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -13028,7 +12458,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>terrorist</t>
+          <t>sexual</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -13045,7 +12475,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>terrorism</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -13062,7 +12492,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>swords</t>
+          <t>seedline</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -13079,7 +12509,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>suicide</t>
+          <t>scientology</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -13096,7 +12526,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>stormfront</t>
+          <t>rifles</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -13113,7 +12543,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>steroids</t>
+          <t>rape</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -13130,7 +12560,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>sexually</t>
+          <t>prostitution</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -13147,7 +12577,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>sexual</t>
+          <t>prescription</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -13164,7 +12594,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>pornography</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -13181,7 +12611,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>seedline</t>
+          <t>plan!</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13198,7 +12628,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>scientology</t>
+          <t>pills</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13215,7 +12645,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>scientologist</t>
+          <t>pill</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13232,7 +12662,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>rifles</t>
+          <t>pharmacy</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13249,7 +12679,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>rape</t>
+          <t>pedophilia</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13266,7 +12696,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>prostitution</t>
+          <t>nudity</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13283,7 +12713,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>prescription</t>
+          <t>nude</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13300,7 +12730,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>pornography</t>
+          <t>nipples</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13317,7 +12747,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>plan!</t>
+          <t>niggers</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13334,7 +12764,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>pills</t>
+          <t>nigger</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13351,7 +12781,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>pill</t>
+          <t>neonazi</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -13368,7 +12798,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>pharmacy</t>
+          <t>neo-nazis</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -13385,7 +12815,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>pedophilia</t>
+          <t>neo-nazi</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -13402,7 +12832,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>nudity</t>
+          <t>neo-confederates</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -13419,7 +12849,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>nude</t>
+          <t>neo-confederate</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -13436,7 +12866,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>nipples</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -13453,7 +12883,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>niggers</t>
+          <t>nazism</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -13470,7 +12900,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>nigger</t>
+          <t>nazis</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -13487,7 +12917,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>neonazi</t>
+          <t>nazi</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -13504,7 +12934,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>neo-nazis</t>
+          <t>muslims</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -13521,7 +12951,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>neo-nazi</t>
+          <t>muslim</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -13538,7 +12968,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>neo-confederates</t>
+          <t>molotov</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -13555,7 +12985,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>neo-confederate</t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -13572,7 +13002,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>meth</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -13589,7 +13019,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>nazism</t>
+          <t>mephedrone</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -13606,7 +13036,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>nazis</t>
+          <t>mating</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -13623,7 +13053,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>nazi</t>
+          <t>masturbation</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -13640,7 +13070,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>muslims</t>
+          <t>massage</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -13657,7 +13087,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>muslim</t>
+          <t>marijuana</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -13674,7 +13104,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>molotov</t>
+          <t>kkk</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -13691,7 +13121,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>kills</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -13708,7 +13138,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>meth</t>
+          <t>kikes</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -13725,7 +13155,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>mephedrone</t>
+          <t>kike</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -13742,7 +13172,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>mating</t>
+          <t>jews</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -13759,7 +13189,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>masturbation</t>
+          <t>jewish</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -13776,7 +13206,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>massage</t>
+          <t>jew</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -13793,7 +13223,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>marijuana</t>
+          <t>islamic</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -13810,7 +13240,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>kkk</t>
+          <t>intercourse</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -13827,7 +13257,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>kills</t>
+          <t>incest</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -13844,7 +13274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>kikes</t>
+          <t>homosexual</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -13861,7 +13291,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kike</t>
+          <t>holohoax</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -13878,7 +13308,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>jews</t>
+          <t>holocaust</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -13895,7 +13325,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>jewish</t>
+          <t>heroin</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -13912,7 +13342,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>jew</t>
+          <t>handguns</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -13929,7 +13359,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>islamic</t>
+          <t>guns</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -13946,7 +13376,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>intercourse</t>
+          <t>gun-grips</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -13963,7 +13393,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>incest</t>
+          <t>gun</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -13980,7 +13410,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>implants</t>
+          <t>goy</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13997,7 +13427,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>homosexual</t>
+          <t>genitalia</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -14014,7 +13444,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>holohoax</t>
+          <t>gambling</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -14031,7 +13461,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>holocaust</t>
+          <t>fuck</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -14048,7 +13478,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>heroin</t>
+          <t>firearms</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -14065,7 +13495,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>handguns</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -14082,7 +13512,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>guns</t>
+          <t>fetishes</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -14099,7 +13529,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>gun-grips</t>
+          <t>fetish</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -14116,7 +13546,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>gun</t>
+          <t>explosive</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -14133,7 +13563,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>goy</t>
+          <t>escort</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -14150,7 +13580,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>genitalia</t>
+          <t>erotic</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -14167,7 +13597,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>gambling</t>
+          <t>electoral</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -14184,7 +13614,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>election</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -14201,7 +13631,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>firearms</t>
+          <t>ed</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -14218,7 +13648,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>ecstasy</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -14235,7 +13665,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>fetishes</t>
+          <t>e-cigarettes</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -14252,7 +13682,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>fetish</t>
+          <t>drugs</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -14269,7 +13699,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>explosive</t>
+          <t>dindu</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -14286,7 +13716,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>escort</t>
+          <t>crystal</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -14303,7 +13733,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>erotic</t>
+          <t>covid-19</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -14320,7 +13750,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>electoral</t>
+          <t>covid</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -14337,7 +13767,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>election</t>
+          <t>coronavirus</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -14354,7 +13784,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ed</t>
+          <t>cocktail</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -14371,7 +13801,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ecstasy</t>
+          <t>cocaine</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -14388,7 +13818,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>e-cigarettes</t>
+          <t>cigars</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -14405,7 +13835,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>drugs</t>
+          <t>cigarettes</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -14422,7 +13852,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>dindu</t>
+          <t>christian</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -14439,7 +13869,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>crystal</t>
+          <t>cannibus</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -14456,7 +13886,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>covid-19</t>
+          <t>buddhist</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -14473,7 +13903,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>buddhism</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -14490,7 +13920,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>coronavirus</t>
+          <t>bongs</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -14507,7 +13937,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>cocktail</t>
+          <t>bombs</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -14524,7 +13954,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>cocaine</t>
+          <t>bombing</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -14541,7 +13971,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>cigars</t>
+          <t>beheading</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -14558,7 +13988,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>cigarettes</t>
+          <t>beastiality</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -14575,7 +14005,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>cider</t>
+          <t>ammunition</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -14592,7 +14022,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>christian</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -14609,7 +14039,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>cannibus</t>
+          <t>aids</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -14626,7 +14056,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>buddhist</t>
+          <t>abortion</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -14643,7 +14073,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>buddhism</t>
+          <t>$50,000</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -14657,193 +14087,6 @@
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>brawl</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>bongs</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>bombs</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>bombing</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>beheading</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>beastiality</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>ammunition</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>alcohol</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>aids</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>abortion</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>$50,000</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reference/what_is_blocked.xlsx
+++ b/data/reference/what_is_blocked.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>additional_info_link</t>
+          <t>background_info_link</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">lgbtq </t>
+          <t>lgbtq+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">

--- a/data/reference/what_is_blocked.xlsx
+++ b/data/reference/what_is_blocked.xlsx
@@ -2017,7 +2017,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>american nazi party</t>
+          <t>dual seedline</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2027,23 +2027,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>31</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2015/active-neo-nazi-groups</t>
+          <t>https://www.adl.org/resources/backgrounders/christian-identity</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>aryan nation</t>
+          <t>globalist jews</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2053,27 +2057,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/resources/profiles/aryan-nations</t>
+          <t>https://www.haaretz.com/us-news/.premium-how-did-the-term-globalist-became-an-anti-semitic-slur-blame-bannon-1.5895925</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>dindu</t>
+          <t>heil hitler</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2081,21 +2085,29 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>32571</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.vice.com/en/article/ezagwm/get-to-know-the-memes-of-the-alt-right-and-never-miss-a-dog-whistle-again</t>
+          <t>https://www.adl.org/education/references/hate-symbols/hitler-salute-hand-sign</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>dual seedline</t>
+          <t>jewish question</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2111,21 +2123,21 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>31</v>
+        <v>10375</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/backgrounders/christian-identity</t>
+          <t>https://encyclopedia.ushmm.org/content/en/article/the-jewish-question</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>gas the kikes</t>
+          <t>radical islamic terror</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2135,27 +2147,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>1746</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.thedailybeast.com/youtube-wont-ban-neo-nazi-group-chanting-gas-the-kkes-race-war-now</t>
+          <t>http://csps.gmu.edu/2020/12/01/why-does-the-west-remain-so-obsessed-with-radical-islam/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gas the kikes race war now</t>
+          <t>sieg heil</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2165,27 +2177,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>32586</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://psmag.com/ideas/neo-nazi-hate-speech-foiling-algorithms</t>
+          <t>https://www.adl.org/education/references/hate-symbols/sieg-heil</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>globalist jews</t>
+          <t>white genocide</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2201,21 +2213,21 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>22245</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.haaretz.com/us-news/.premium-how-did-the-term-globalist-became-an-anti-semitic-slur-blame-bannon-1.5895925</t>
+          <t>https://www.adl.org/resources/glossary-terms/white-genocide</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>goy</t>
+          <t>white nationalist</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2223,21 +2235,29 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>59520</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13</v>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/the-goyim-knowshut-it-down</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>heil hitler</t>
+          <t>white pill</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2253,21 +2273,21 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>32571</v>
+        <v>9423</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/hitler-salute-hand-sign</t>
+          <t>https://www.adl.org/blog/the-extremist-medicine-cabinet-a-guide-to-online-pills</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>holocaust denial</t>
+          <t>white pride</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2277,23 +2297,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>19044</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/holocaust-denial</t>
+          <t>https://www.adl.org/resources/glossary-terms/white-pride</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>holohoax</t>
+          <t>gas the kikes race war now</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2301,21 +2325,29 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.isdglobal.org/isd-publications/hosting-the-holohoax-a-snapshot-of-holocaust-denial-across-social-media/</t>
+          <t>https://psmag.com/ideas/neo-nazi-hate-speech-foiling-algorithms</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jewish question</t>
+          <t>aryan nation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2325,27 +2357,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>10375</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://encyclopedia.ushmm.org/content/en/article/the-jewish-question</t>
+          <t>https://www.adl.org/education/resources/profiles/aryan-nations</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>kike</t>
+          <t>gas the kikes</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2353,21 +2385,29 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://blog.oup.com/2009/10/ethnic-slurs-kike/</t>
+          <t>https://www.thedailybeast.com/youtube-wont-ban-neo-nazi-group-chanting-gas-the-kkes-race-war-now</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>kkk</t>
+          <t>two seedline</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2375,21 +2415,29 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/ku-klux-klan</t>
+          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2008/branson-televangelist-arnold-murray-preaches-christian-identity-theology</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>nazi</t>
+          <t>american nazi party</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2397,21 +2445,25 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
+          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2015/active-neo-nazi-groups</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>neo-confederate</t>
+          <t>holocaust denial</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2419,21 +2471,25 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/neo-confederate</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/holocaust-denial</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>neo-nazi</t>
+          <t>white pride worldwide</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,21 +2497,25 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/stormfront</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nigger</t>
+          <t>dindu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2470,14 +2530,14 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/wp-srv/style/longterm/books/chap1/nigger.htm</t>
+          <t>https://www.vice.com/en/article/ezagwm/get-to-know-the-memes-of-the-alt-right-and-never-miss-a-dog-whistle-again</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>radical islamic terror</t>
+          <t>goy</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2485,29 +2545,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
-        <v>1746</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>http://csps.gmu.edu/2020/12/01/why-does-the-west-remain-so-obsessed-with-radical-islam/</t>
+          <t>https://www.adl.org/education/references/hate-symbols/the-goyim-knowshut-it-down</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sieg heil</t>
+          <t>holohoax</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2515,29 +2567,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>32586</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/sieg-heil</t>
+          <t>https://www.isdglobal.org/isd-publications/hosting-the-holohoax-a-snapshot-of-holocaust-denial-across-social-media/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>stormfront</t>
+          <t>kike</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2552,14 +2596,14 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/stormfront</t>
+          <t>https://blog.oup.com/2009/10/ethnic-slurs-kike/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>two seedline</t>
+          <t>kkk</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2567,29 +2611,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2008/branson-televangelist-arnold-murray-preaches-christian-identity-theology</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/ku-klux-klan</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>wetback</t>
+          <t>nazi</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2604,14 +2640,14 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.buzzfeednews.com/article/andrewkaczynski/white-supremacists-are-thrilled-donald-trump-mentioned-opera</t>
+          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>white genocide</t>
+          <t>neo-confederate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2619,29 +2655,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="n">
-        <v>22245</v>
-      </c>
-      <c r="G84" t="n">
-        <v>13</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/white-genocide</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/neo-confederate</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>white nationalist</t>
+          <t>neo-nazi</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2649,29 +2677,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="n">
-        <v>59520</v>
-      </c>
-      <c r="G85" t="n">
-        <v>13</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
+          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>white pill</t>
+          <t>nigger</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2679,29 +2699,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="n">
-        <v>9423</v>
-      </c>
-      <c r="G86" t="n">
-        <v>10</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.adl.org/blog/the-extremist-medicine-cabinet-a-guide-to-online-pills</t>
+          <t>https://www.washingtonpost.com/wp-srv/style/longterm/books/chap1/nigger.htm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>white pride</t>
+          <t>stormfront</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2709,29 +2721,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
-        <v>19044</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/white-pride</t>
+          <t>https://www.adl.org/education/references/hate-symbols/stormfront</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>white pride worldwide</t>
+          <t>wetback</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2739,18 +2743,14 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/stormfront</t>
+          <t>https://www.buzzfeednews.com/article/andrewkaczynski/white-supremacists-are-thrilled-donald-trump-mentioned-opera</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>black muslim</t>
+          <t>black power</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3818,22 +3818,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>566806</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>black power</t>
+          <t>electoral justice</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3849,16 +3849,16 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>566806</v>
+        <v>930</v>
       </c>
       <c r="G50" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>electoral justice</t>
+          <t>i stand with ilhan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3874,7 +3874,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>930</v>
+        <v>89</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>i stand with ilhan</t>
+          <t>i stand with kaepernick</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3899,7 +3899,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>i stand with kaepernick</t>
+          <t>muslim american</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3924,16 +3924,16 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>49744</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>muslim american</t>
+          <t>muslim fashion</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3949,16 +3949,16 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>49744</v>
+        <v>39114</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>muslim fashion</t>
+          <t>muslim parenting</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3974,16 +3974,16 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>39114</v>
+        <v>550</v>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>muslim parenting</t>
+          <t>muslim solidarity</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3999,16 +3999,16 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>550</v>
+        <v>733</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>muslim solidarity</t>
+          <t>no muslim ban ever</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4024,7 +4024,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>733</v>
+        <v>90</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>no muslim ban ever</t>
+          <t>stand with ilhan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4049,7 +4049,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sex ed</t>
+          <t>white supremacy</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4068,18 +4068,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>309769</v>
+      </c>
+      <c r="G59" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sex work</t>
+          <t>black muslim</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4089,18 +4093,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sexual liberation</t>
+          <t>sex ed</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4121,7 +4129,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>stand with ilhan</t>
+          <t>sex work</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4131,22 +4139,18 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
-        <v>263</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>white supremacy</t>
+          <t>sexual liberation</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4156,17 +4160,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
-        <v>309769</v>
-      </c>
-      <c r="G63" t="n">
-        <v>162</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5004,7 +5004,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3d print guns</t>
+          <t>aids denial</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5014,13 +5014,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -5029,7 +5029,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>abortion</t>
+          <t>ammunition clips</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5037,16 +5037,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>678</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>aids denial</t>
+          <t>animal mating</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5062,16 +5070,16 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>65</v>
+        <v>72001</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>automatic gun conversion kits</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5079,16 +5087,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ammunition</t>
+          <t>black salve</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5096,16 +5112,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>8740</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ammunition clips</t>
+          <t>buy alcohol</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5121,16 +5145,16 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>678</v>
+        <v>16087</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>animal mating</t>
+          <t>buy organs</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5146,16 +5170,16 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>72001</v>
+        <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>automatic gun conversion kits</t>
+          <t>buy weed</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5171,16 +5195,16 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>41</v>
+        <v>26576</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>beastiality</t>
+          <t>chewing tobacco</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5188,16 +5212,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>56504</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>beheading</t>
+          <t>execution videos</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5205,16 +5237,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>black salve</t>
+          <t>explosive vest</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5230,16 +5270,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>8740</v>
+        <v>622</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bongs</t>
+          <t>fetish content</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5247,16 +5287,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>433</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bullfighting swords in bull</t>
+          <t>firearm scopes</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5266,22 +5314,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>buy alcohol</t>
+          <t>firearm silencer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5297,16 +5345,16 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>16087</v>
+        <v>2147</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>buy drugs on the dark web</t>
+          <t>firearm stocks</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5316,13 +5364,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5331,7 +5379,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>buy organs</t>
+          <t>generate fake credit card numbers</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5347,16 +5395,16 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>buy weed</t>
+          <t>hunt with bombing</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5372,16 +5420,16 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>26576</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cannibus coffee shops</t>
+          <t>incorrect election date</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5391,13 +5439,13 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5406,7 +5454,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>chewing tobacco</t>
+          <t>make ammunition</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5422,16 +5470,16 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>56504</v>
+        <v>476</v>
       </c>
       <c r="G57" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cigarettes</t>
+          <t>making hard drugs</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5439,16 +5487,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cigars</t>
+          <t>minors drinking alcohol</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5456,16 +5512,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>73</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cocaine</t>
+          <t>minors vaping</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5473,16 +5537,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>14</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>coronavirus</t>
+          <t>miracle mineral solution</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5490,16 +5562,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>3548</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>nude photo leaks</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5507,16 +5587,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>585</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>covid-19</t>
+          <t>online pharmacy no prescription</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5524,16 +5612,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>covid-19 asian food</t>
+          <t>package bombs</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5543,18 +5639,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>1568</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>covid-19 doesn't exist</t>
+          <t>selling firearms</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5564,18 +5664,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>2357</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>covid-19 from 5g</t>
+          <t>terrorist acts</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5585,18 +5689,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>11166</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>covid-19 guaranteed vaccine</t>
+          <t>terrorist attack</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5606,18 +5714,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>485073</v>
+      </c>
+      <c r="G67" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>covid-19 home remedy</t>
+          <t>terrorist hostages</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5627,18 +5739,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>covid-19 people don't die</t>
+          <t>terrorist ideology</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5648,18 +5764,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>132</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>covid-19 prayer</t>
+          <t>terrorist recruitment</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5669,18 +5789,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>506</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>covid-19 ritual</t>
+          <t>text your vote</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5690,18 +5814,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>287</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>covid-19 vaccine kills people</t>
+          <t>video game terrorist mod</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5711,18 +5839,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>13</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>crystal meth</t>
+          <t>bullfighting swords in bull</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5732,18 +5864,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dog fighting</t>
+          <t>buy drugs on the dark web</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5753,22 +5889,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dramatized rape scenes</t>
+          <t>cannibus coffee shops</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5793,7 +5929,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>e-cigarettes</t>
+          <t>dramatized rape scenes</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5801,16 +5937,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ecstasy</t>
+          <t>threads with firearms</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5818,16 +5962,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>erotic massage services</t>
+          <t>3d print guns</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5837,18 +5989,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>escort services</t>
+          <t>dog fighting</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5858,18 +6014,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>execution videos</t>
+          <t>make firearm</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5879,22 +6039,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>3140</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>explosive vest</t>
+          <t>make high capacity ammunition</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5904,13 +6064,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5919,7 +6079,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>fetish content</t>
+          <t>covid-19 asian food</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5929,22 +6089,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="n">
-        <v>433</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>covid-19 doesn't exist</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5952,7 +6108,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
@@ -5961,7 +6121,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>firearm scopes</t>
+          <t>covid-19 from 5g</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5971,22 +6131,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>firearm silencer</t>
+          <t>covid-19 guaranteed vaccine</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5996,22 +6152,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="n">
-        <v>2147</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>firearm stocks</t>
+          <t>covid-19 home remedy</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6021,22 +6173,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="n">
-        <v>54</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>firearms</t>
+          <t>covid-19 people don't die</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6044,7 +6192,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
@@ -6053,7 +6205,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>covid-19 prayer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6061,7 +6213,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -6070,7 +6226,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>generate fake credit card numbers</t>
+          <t>covid-19 ritual</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6080,22 +6236,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
-        <v>99</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>genitalia</t>
+          <t>covid-19 vaccine kills people</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6103,7 +6255,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
@@ -6112,7 +6268,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gun-grips</t>
+          <t>crystal meth</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6120,7 +6276,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -6129,7 +6289,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>handguns</t>
+          <t>erotic massage services</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6137,7 +6297,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
@@ -6146,7 +6310,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>heroin</t>
+          <t>escort services</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6154,7 +6318,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
@@ -6163,7 +6331,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>hunt with bombing</t>
+          <t>molotov cocktail</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6173,22 +6341,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
-        <v>4</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>incest</t>
+          <t>online gambling</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6196,7 +6360,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -6205,7 +6373,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>incorrect election date</t>
+          <t>rolling papers</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6215,22 +6383,18 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="n">
-        <v>13</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>intercourse</t>
+          <t>sex industry</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6238,7 +6402,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
@@ -6247,7 +6415,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>make ammunition</t>
+          <t>sex services</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6257,22 +6425,18 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="n">
-        <v>476</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>make firearm</t>
+          <t>sex toys</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6282,22 +6446,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>make high capacity ammunition</t>
+          <t>sexual abuse</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6307,22 +6467,18 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>making hard drugs</t>
+          <t>sexual acts</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6332,22 +6488,18 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
-        <v>5</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>marijuana</t>
+          <t>sexual device</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6355,7 +6507,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
@@ -6364,7 +6520,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>masturbation</t>
+          <t>sexual fetishes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6372,7 +6528,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
@@ -6381,7 +6541,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mephedrone</t>
+          <t>sexual fluids</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6389,7 +6549,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
@@ -6398,7 +6562,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>minors drinking alcohol</t>
+          <t>sexual gratification</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6408,22 +6572,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>73</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>minors vaping</t>
+          <t>sexual harassment</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6433,22 +6593,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="n">
-        <v>14</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>miracle mineral solution</t>
+          <t>sexually explict content</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6458,22 +6614,18 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>3548</v>
-      </c>
-      <c r="G107" t="n">
-        <v>3</v>
-      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>molotov cocktail</t>
+          <t>sexually unwanted acts</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6494,7 +6646,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>nipples</t>
+          <t>vape pens</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6502,7 +6654,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
@@ -6511,7 +6667,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>nude photo leaks</t>
+          <t>you'll make $50,000 tomorrow with this plan!</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6521,22 +6677,18 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="n">
-        <v>585</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>nudity</t>
+          <t>abortion</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6553,7 +6705,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>online gambling</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6561,11 +6713,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
@@ -6574,7 +6722,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>online pharmacy no prescription</t>
+          <t>ammunition</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6582,24 +6730,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
-        <v>12</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>package bombs</t>
+          <t>beastiality</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6607,24 +6747,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="n">
-        <v>1568</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>pedophilia</t>
+          <t>beheading</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6641,7 +6773,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>pornography</t>
+          <t>bongs</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6658,7 +6790,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>prostitution</t>
+          <t>cigarettes</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6675,7 +6807,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>rape</t>
+          <t>cigars</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6692,7 +6824,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>rifles</t>
+          <t>cocaine</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6709,7 +6841,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rolling papers</t>
+          <t>coronavirus</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6717,11 +6849,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
@@ -6730,7 +6858,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>selling firearms</t>
+          <t>covid</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6738,24 +6866,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="n">
-        <v>2357</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>covid-19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6772,7 +6892,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sex industry</t>
+          <t>e-cigarettes</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6780,11 +6900,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
@@ -6793,7 +6909,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sex services</t>
+          <t>ecstasy</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6801,11 +6917,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -6814,7 +6926,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sex toys</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6822,11 +6934,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
@@ -6835,7 +6943,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sexual abuse</t>
+          <t>firearms</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6843,11 +6951,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -6856,7 +6960,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sexual acts</t>
+          <t>fuck</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6864,11 +6968,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -6877,7 +6977,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sexual device</t>
+          <t>genitalia</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6885,11 +6985,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -6898,7 +6994,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sexual fetishes</t>
+          <t>gun-grips</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6906,11 +7002,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -6919,7 +7011,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sexual fluids</t>
+          <t>handguns</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6927,11 +7019,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -6940,7 +7028,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sexual gratification</t>
+          <t>heroin</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6948,11 +7036,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -6961,7 +7045,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sexual harassment</t>
+          <t>incest</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6969,11 +7053,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -6982,7 +7062,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sexually explict content</t>
+          <t>intercourse</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6990,11 +7070,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
@@ -7003,7 +7079,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sexually unwanted acts</t>
+          <t>marijuana</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7011,11 +7087,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -7024,7 +7096,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>steroids</t>
+          <t>masturbation</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7041,7 +7113,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>suicide</t>
+          <t>mephedrone</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7058,7 +7130,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>terrorism</t>
+          <t>nipples</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7075,7 +7147,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>terrorist acts</t>
+          <t>nudity</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7083,24 +7155,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="n">
-        <v>11166</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>terrorist attack</t>
+          <t>pedophilia</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7108,24 +7172,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="n">
-        <v>485073</v>
-      </c>
-      <c r="G139" t="n">
-        <v>83</v>
-      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>terrorist hostages</t>
+          <t>pornography</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7133,24 +7189,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="n">
-        <v>3</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>terrorist ideology</t>
+          <t>prostitution</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7158,24 +7206,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="n">
-        <v>132</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>terrorist recruitment</t>
+          <t>rape</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7183,24 +7223,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="n">
-        <v>506</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>text your vote</t>
+          <t>rifles</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7208,24 +7240,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="n">
-        <v>287</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>threads with firearms</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7233,24 +7257,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>upskirt</t>
+          <t>steroids</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7267,7 +7283,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vape pens</t>
+          <t>suicide</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7275,11 +7291,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
@@ -7288,7 +7300,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vapes</t>
+          <t>terrorism</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7305,7 +7317,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vaping</t>
+          <t>upskirt</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7322,7 +7334,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>video game terrorist mod</t>
+          <t>vapes</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7330,24 +7342,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="n">
-        <v>13</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>voyeurism</t>
+          <t>vaping</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7364,7 +7368,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>you'll make $50,000 tomorrow with this plan!</t>
+          <t>voyeurism</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7372,11 +7376,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -8133,7 +8133,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>buddhism</t>
+          <t>buddhist american</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -8141,16 +8141,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>58</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>buddhist</t>
+          <t>buddhist parenting</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8158,16 +8166,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>16</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>buddhist american</t>
+          <t>christian american</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -8183,16 +8199,16 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>58</v>
+        <v>16044</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>buddhist parenting</t>
+          <t>christian solidarity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8208,16 +8224,16 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>christian american</t>
+          <t>jewish american</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8233,16 +8249,16 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>16044</v>
+        <v>29074</v>
       </c>
       <c r="G38" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>christian solidarity</t>
+          <t>jewish parenting</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -8258,16 +8274,16 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>homosexual</t>
+          <t>jewish solidarity</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8275,16 +8291,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>347</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>jewish american</t>
+          <t>nazi extermination camps</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8300,16 +8324,16 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>29074</v>
+        <v>442</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>jewish parenting</t>
+          <t>nazi propoganda</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8325,7 +8349,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -8334,7 +8358,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jewish solidarity</t>
+          <t>nazi scientist</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8350,7 +8374,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>347</v>
+        <v>815</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -8359,7 +8383,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>kikes</t>
+          <t>praise terrorism</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8367,16 +8391,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>muslim ttszozjqoits</t>
+          <t>praise terrorist</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8386,13 +8418,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -8401,7 +8433,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>nazi extermination camps</t>
+          <t>recruit terrorist</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8417,7 +8449,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -8426,7 +8458,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>nazi germany</t>
+          <t>stolen election</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8436,22 +8468,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>11271</v>
       </c>
       <c r="G47" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nazi propoganda</t>
+          <t>terrorism acts</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8467,7 +8499,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -8476,7 +8508,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>nazi scientist</t>
+          <t>terrorism attack</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8492,16 +8524,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>815</v>
+        <v>11498</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>nazis</t>
+          <t>white christian</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8509,16 +8541,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>40699</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>nazism</t>
+          <t>white pills</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8526,16 +8566,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>8049</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>neo nazi</t>
+          <t>ww2 nazis</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8545,18 +8593,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>849</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>neo-confederates</t>
+          <t>muslim ttszozjqoits</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8564,16 +8616,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>neo-nazis</t>
+          <t>nazi germany</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8581,16 +8641,24 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>neonazi</t>
+          <t>neo nazi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8598,7 +8666,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -8607,7 +8679,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>niggers</t>
+          <t>sex positive</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8615,7 +8687,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -8624,7 +8700,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>praise terrorism</t>
+          <t>sexual education</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8634,22 +8710,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>praise terrorist</t>
+          <t>buddhism</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8657,24 +8729,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>15</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>recruit terrorist</t>
+          <t>buddhist</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8682,24 +8746,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
-        <v>29</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>scientology</t>
+          <t>homosexual</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8716,7 +8772,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sex positive</t>
+          <t>kikes</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8724,11 +8780,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -8737,7 +8789,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sexual education</t>
+          <t>nazis</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8745,11 +8797,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -8758,7 +8806,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sexuality</t>
+          <t>nazism</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8775,7 +8823,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>stolen election</t>
+          <t>neo-confederates</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8783,24 +8831,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
-        <v>11271</v>
-      </c>
-      <c r="G64" t="n">
-        <v>16</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>terrorism acts</t>
+          <t>neo-nazis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8808,24 +8848,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>374</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>terrorism attack</t>
+          <t>neonazi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8833,24 +8865,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>11498</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>wetbacks</t>
+          <t>niggers</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8867,7 +8891,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>white christian</t>
+          <t>scientology</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8875,24 +8899,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
-        <v>40699</v>
-      </c>
-      <c r="G68" t="n">
-        <v>5</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>white pills</t>
+          <t>sexuality</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8900,24 +8916,16 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>8049</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2</v>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ww2 nazis</t>
+          <t>wetbacks</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8925,19 +8933,11 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
-        <v>849</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/reference/what_is_blocked.xlsx
+++ b/data/reference/what_is_blocked.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1081,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>free helocopter rides</t>
+          <t>great replacement</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1091,23 +1091,23 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>138</v>
+        <v>15006360</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.vice.com/en/article/ezagwm/get-to-know-the-memes-of-the-alt-right-and-never-miss-a-dog-whistle-again</t>
+          <t>https://www.isdglobal.org/wp-content/uploads/2019/07/The-Great-Replacement-The-Violent-Consequences-of-Mainstreamed-Extremism-by-ISD.pdf</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>great replacement</t>
+          <t>hammerskin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1117,23 +1117,23 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>15006360</v>
+        <v>5806</v>
       </c>
       <c r="E26" t="n">
-        <v>461</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.isdglobal.org/wp-content/uploads/2019/07/The-Great-Replacement-The-Violent-Consequences-of-Mainstreamed-Extremism-by-ISD.pdf</t>
+          <t>https://www.adl.org/education/references/hate-symbols/hammerskins</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hammerskin</t>
+          <t>identitarianism</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1143,23 +1143,23 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>5806</v>
+        <v>378</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/hammerskins</t>
+          <t>https://www.newsweek.com/identitarian-movement-extremist-far-right-germany-1448710</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>identitarianism</t>
+          <t>identity evropa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1169,23 +1169,23 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>378</v>
+        <v>1466</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.newsweek.com/identitarian-movement-extremist-far-right-germany-1448710</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/identity-evropaamerican-identity-movement</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>identity evropa</t>
+          <t>it's okay to be white</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1195,23 +1195,23 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>1466</v>
+        <v>118249642</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>417519</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/identity-evropaamerican-identity-movement</t>
+          <t>https://www.adl.org/education/references/hate-symbols/its-okay-to-be-white</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>it's okay to be white</t>
+          <t>league of the south</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1221,23 +1221,23 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>118249642</v>
+        <v>52684166</v>
       </c>
       <c r="E30" t="n">
-        <v>417519</v>
+        <v>37727</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/its-okay-to-be-white</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/league-south</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>league of the south</t>
+          <t>lgbtp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1247,23 +1247,23 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>52684166</v>
+        <v>602</v>
       </c>
       <c r="E31" t="n">
-        <v>37727</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/league-south</t>
+          <t>https://www.advocate.com/news/2020/7/30/lgbtq-leaders-denounce-images-proclaiming-association-pedophiles</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lgbtp</t>
+          <t>national socialism</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1273,23 +1273,23 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>602</v>
+        <v>998910</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.advocate.com/news/2020/7/30/lgbtq-leaders-denounce-images-proclaiming-association-pedophiles</t>
+          <t>https://www.adl.org/resources/backgrounders/national-socialist-movement</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>national socialism</t>
+          <t>open borders for israel</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1299,23 +1299,23 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>998910</v>
+        <v>2031334</v>
       </c>
       <c r="E33" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/backgrounders/national-socialist-movement</t>
+          <t>https://www.newyorker.com/news/news-desk/twitters-anti-semitism-problem</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>open borders for israel</t>
+          <t>proud boys</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1325,23 +1325,23 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>2031334</v>
+        <v>19558202</v>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>578</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.newyorker.com/news/news-desk/twitters-anti-semitism-problem</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/proud-boys</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>proud boys</t>
+          <t>race and iq</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1351,23 +1351,23 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>19558202</v>
+        <v>5628308</v>
       </c>
       <c r="E35" t="n">
-        <v>578</v>
+        <v>339</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/proud-boys</t>
+          <t>https://www.theguardian.com/news/2018/mar/02/the-unwelcome-revival-of-race-science</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>race and iq</t>
+          <t>race realism</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1377,23 +1377,23 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>5628308</v>
+        <v>1126670</v>
       </c>
       <c r="E36" t="n">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.theguardian.com/news/2018/mar/02/the-unwelcome-revival-of-race-science</t>
+          <t>https://washingtonmonthly.com/2018/03/26/race-realism-and-the-election-of-donald-trump/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>race realism</t>
+          <t>race war</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1403,23 +1403,23 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>1126670</v>
+        <v>75092139</v>
       </c>
       <c r="E37" t="n">
-        <v>25</v>
+        <v>125776</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://washingtonmonthly.com/2018/03/26/race-realism-and-the-election-of-donald-trump/</t>
+          <t>https://www.splcenter.org/news/2020/10/23/quantifying-race-war-america</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>race war</t>
+          <t>racial holy war</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1429,23 +1429,23 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>75092139</v>
+        <v>2063001</v>
       </c>
       <c r="E38" t="n">
-        <v>125776</v>
+        <v>7</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/news/2020/10/23/quantifying-race-war-america</t>
+          <t>https://www.adl.org/education/references/hate-symbols/rahowa</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>racial holy war</t>
+          <t>red ice tv</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1455,23 +1455,23 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>2063001</v>
+        <v>93482132</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>326308</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/rahowa</t>
+          <t>https://www.splcenter.org/hatewatch/2019/10/21/youtube-takes-down-red-ices-main-channel</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>red ice tv</t>
+          <t>right wing death squads</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1481,23 +1481,23 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>93482132</v>
+        <v>8793211</v>
       </c>
       <c r="E40" t="n">
-        <v>326308</v>
+        <v>34</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/hatewatch/2019/10/21/youtube-takes-down-red-ices-main-channel</t>
+          <t>https://www.splcenter.org/hatewatch/2018/04/19/day-trope-white-nationalist-memes-thrive-reddits-rthedonald</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>right wing death squads</t>
+          <t>send them back</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1507,23 +1507,23 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>8793211</v>
+        <v>43013374</v>
       </c>
       <c r="E41" t="n">
-        <v>34</v>
+        <v>108063</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/hatewatch/2018/04/19/day-trope-white-nationalist-memes-thrive-reddits-rthedonald</t>
+          <t>https://jewishweek.timesofisrael.com/what-send-them-back-means-to-jews/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>send them back</t>
+          <t>shitskins</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1533,23 +1533,23 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>43013374</v>
+        <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>108063</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://jewishweek.timesofisrael.com/what-send-them-back-means-to-jews/</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/individual/craig-cobb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>shitskins</t>
+          <t>sonnenrad</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1559,23 +1559,23 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>132</v>
+        <v>3447</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/individual/craig-cobb</t>
+          <t>https://www.adl.org/education/references/hate-symbols/sonnenrad</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sonnenrad</t>
+          <t>southern nationalist</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1585,23 +1585,23 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>3447</v>
+        <v>404103</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/sonnenrad</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/league-south</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>southern nationalist</t>
+          <t>swastika</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1611,23 +1611,23 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>404103</v>
+        <v>530052</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/league-south</t>
+          <t>https://www.adl.org/education/references/hate-symbols/swastika</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>swastika</t>
+          <t>traditionalist worker party</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1637,23 +1637,23 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>530052</v>
+        <v>2153</v>
       </c>
       <c r="E46" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/swastika</t>
+          <t>https://www.adl.org/resources/backgrounders/traditionalist-worker-party-twp</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>traditionalist worker party</t>
+          <t>unite the right</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1663,23 +1663,23 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>2153</v>
+        <v>5726030</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/backgrounders/traditionalist-worker-party-twp</t>
+          <t>https://www.splcenter.org/unite-the-right</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>unite the right</t>
+          <t>vdare</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1689,23 +1689,23 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>5726030</v>
+        <v>299</v>
       </c>
       <c r="E48" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/unite-the-right</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/vdare</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>vdare</t>
+          <t>war on whites</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1715,23 +1715,23 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>299</v>
+        <v>1600403</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/vdare</t>
+          <t>https://www.washingtonpost.com/news/wonk/wp/2017/08/14/the-war-on-whites-is-a-myth-and-an-ugly-one/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>war on whites</t>
+          <t>we wuz kangz</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1741,23 +1741,23 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>1600403</v>
+        <v>5330</v>
       </c>
       <c r="E50" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/news/wonk/wp/2017/08/14/the-war-on-whites-is-a-myth-and-an-ugly-one/</t>
+          <t>https://knowyourmeme.com/memes/we-wuz-kings</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>we wuz kangz</t>
+          <t>white civil rights</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1767,23 +1767,23 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>5330</v>
+        <v>22368929</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://knowyourmeme.com/memes/we-wuz-kings</t>
+          <t>https://www.npr.org/2018/06/21/622144455/white-civil-rights-rally-approved-for-d-c-in-august</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>white civil rights</t>
+          <t>white ethnostate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1793,23 +1793,23 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>22368929</v>
+        <v>4032</v>
       </c>
       <c r="E52" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2018/06/21/622144455/white-civil-rights-rally-approved-for-d-c-in-august</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>white ethnostate</t>
+          <t>white lives matter</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1819,23 +1819,23 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>4032</v>
+        <v>33238185</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3885</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/white-lives-matter</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>white lives matter</t>
+          <t>white nationalism</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1845,23 +1845,23 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>33238185</v>
+        <v>755910</v>
       </c>
       <c r="E54" t="n">
-        <v>3885</v>
+        <v>41</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/white-lives-matter</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>white nationalism</t>
+          <t>white power</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1871,23 +1871,23 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>755910</v>
+        <v>169420977</v>
       </c>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>377159</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
+          <t>https://www.adl.org/education/references/hate-symbols/white-power-hand-sign</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>white power</t>
+          <t>white separatism</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1897,23 +1897,23 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>169420977</v>
+        <v>29378</v>
       </c>
       <c r="E56" t="n">
-        <v>377159</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/white-power-hand-sign</t>
+          <t>https://www.adl.org/resources/glossary-terms/white-separatism</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>white separatism</t>
+          <t>white sharia</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1923,23 +1923,23 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>29378</v>
+        <v>383290</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/white-separatism</t>
+          <t>https://www.splcenter.org/hatewatch/2017/11/27/white-sharia-and-militant-white-nationalism</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>white sharia</t>
+          <t>you will not replace us</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1949,23 +1949,23 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>383290</v>
+        <v>17239492</v>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/hatewatch/2017/11/27/white-sharia-and-militant-white-nationalism</t>
+          <t>https://www.splcenter.org/hatewatch/2017/10/10/when-white-nationalists-chant-their-weird-slogans-what-do-they-mean</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>you will not replace us</t>
+          <t>zionist occupation government</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1975,49 +1975,53 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>17239492</v>
+        <v>63399</v>
       </c>
       <c r="E59" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/hatewatch/2017/10/10/when-white-nationalists-chant-their-weird-slogans-what-do-they-mean</t>
+          <t>https://www.adl.org/education/references/hate-symbols/zog</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>zionist occupation government</t>
+          <t>dual seedline</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
-        <v>63399</v>
-      </c>
-      <c r="E60" t="n">
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>31</v>
+      </c>
+      <c r="G60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/zog</t>
+          <t>https://www.adl.org/resources/backgrounders/christian-identity</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dual seedline</t>
+          <t>globalist jews</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2033,21 +2037,21 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/backgrounders/christian-identity</t>
+          <t>https://www.haaretz.com/us-news/.premium-how-did-the-term-globalist-became-an-anti-semitic-slur-blame-bannon-1.5895925</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>globalist jews</t>
+          <t>heil hitler</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2063,21 +2067,21 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>6</v>
+        <v>32571</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.haaretz.com/us-news/.premium-how-did-the-term-globalist-became-an-anti-semitic-slur-blame-bannon-1.5895925</t>
+          <t>https://www.adl.org/education/references/hate-symbols/hitler-salute-hand-sign</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>heil hitler</t>
+          <t>jewish question</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2093,21 +2097,21 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>32571</v>
+        <v>10375</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/hitler-salute-hand-sign</t>
+          <t>https://encyclopedia.ushmm.org/content/en/article/the-jewish-question</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>jewish question</t>
+          <t>radical islamic terror</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2123,21 +2127,21 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>10375</v>
+        <v>1746</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://encyclopedia.ushmm.org/content/en/article/the-jewish-question</t>
+          <t>http://csps.gmu.edu/2020/12/01/why-does-the-west-remain-so-obsessed-with-radical-islam/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>radical islamic terror</t>
+          <t>sieg heil</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2153,21 +2157,21 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>1746</v>
+        <v>32586</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>http://csps.gmu.edu/2020/12/01/why-does-the-west-remain-so-obsessed-with-radical-islam/</t>
+          <t>https://www.adl.org/education/references/hate-symbols/sieg-heil</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sieg heil</t>
+          <t>white genocide</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2183,21 +2187,21 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>32586</v>
+        <v>22245</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/sieg-heil</t>
+          <t>https://www.adl.org/resources/glossary-terms/white-genocide</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>white genocide</t>
+          <t>white nationalist</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2213,21 +2217,21 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>22245</v>
+        <v>59520</v>
       </c>
       <c r="G67" t="n">
         <v>13</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/white-genocide</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>white nationalist</t>
+          <t>white pill</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2243,21 +2247,21 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>59520</v>
+        <v>9423</v>
       </c>
       <c r="G68" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/white-nationalist</t>
+          <t>https://www.adl.org/blog/the-extremist-medicine-cabinet-a-guide-to-online-pills</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>white pill</t>
+          <t>white pride</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2273,21 +2277,21 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>9423</v>
+        <v>19044</v>
       </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.adl.org/blog/the-extremist-medicine-cabinet-a-guide-to-online-pills</t>
+          <t>https://www.adl.org/resources/glossary-terms/white-pride</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>white pride</t>
+          <t>gas the kikes race war now</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2297,27 +2301,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>19044</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/white-pride</t>
+          <t>https://psmag.com/ideas/neo-nazi-hate-speech-foiling-algorithms</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gas the kikes race war now</t>
+          <t>aryan nation</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2327,27 +2331,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://psmag.com/ideas/neo-nazi-hate-speech-foiling-algorithms</t>
+          <t>https://www.adl.org/education/resources/profiles/aryan-nations</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>aryan nation</t>
+          <t>gas the kikes</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2366,18 +2370,18 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/resources/profiles/aryan-nations</t>
+          <t>https://www.thedailybeast.com/youtube-wont-ban-neo-nazi-group-chanting-gas-the-kkes-race-war-now</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gas the kikes</t>
+          <t>two seedline</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2400,14 +2404,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.thedailybeast.com/youtube-wont-ban-neo-nazi-group-chanting-gas-the-kkes-race-war-now</t>
+          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2008/branson-televangelist-arnold-murray-preaches-christian-identity-theology</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>two seedline</t>
+          <t>american nazi party</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2417,27 +2421,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2008/branson-televangelist-arnold-murray-preaches-christian-identity-theology</t>
+          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2015/active-neo-nazi-groups</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>american nazi party</t>
+          <t>holocaust denial</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2456,14 +2456,14 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/intelligence-report/2015/active-neo-nazi-groups</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/holocaust-denial</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>holocaust denial</t>
+          <t>white pride worldwide</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2482,14 +2482,14 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/holocaust-denial</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/stormfront</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>white pride worldwide</t>
+          <t>dindu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2497,25 +2497,21 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/group/stormfront</t>
+          <t>https://www.vice.com/en/article/ezagwm/get-to-know-the-memes-of-the-alt-right-and-never-miss-a-dog-whistle-again</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dindu</t>
+          <t>goy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2530,14 +2526,14 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.vice.com/en/article/ezagwm/get-to-know-the-memes-of-the-alt-right-and-never-miss-a-dog-whistle-again</t>
+          <t>https://www.adl.org/education/references/hate-symbols/the-goyim-knowshut-it-down</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>goy</t>
+          <t>holohoax</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2552,14 +2548,14 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.adl.org/education/references/hate-symbols/the-goyim-knowshut-it-down</t>
+          <t>https://www.isdglobal.org/isd-publications/hosting-the-holohoax-a-snapshot-of-holocaust-denial-across-social-media/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>holohoax</t>
+          <t>kike</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2574,14 +2570,14 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.isdglobal.org/isd-publications/hosting-the-holohoax-a-snapshot-of-holocaust-denial-across-social-media/</t>
+          <t>https://blog.oup.com/2009/10/ethnic-slurs-kike/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>kike</t>
+          <t>kkk</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2596,14 +2592,14 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://blog.oup.com/2009/10/ethnic-slurs-kike/</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/ku-klux-klan</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kkk</t>
+          <t>nazi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2618,14 +2614,14 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/ku-klux-klan</t>
+          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>nazi</t>
+          <t>neo-confederate</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2640,14 +2636,14 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
+          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/neo-confederate</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>neo-confederate</t>
+          <t>neo-nazi</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2662,14 +2658,14 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.splcenter.org/fighting-hate/extremist-files/ideology/neo-confederate</t>
+          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>neo-nazi</t>
+          <t>nigger</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2684,14 +2680,14 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.adl.org/resources/glossary-terms/neo-nazis</t>
+          <t>https://www.washingtonpost.com/wp-srv/style/longterm/books/chap1/nigger.htm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nigger</t>
+          <t>stormfront</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2706,14 +2702,14 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/wp-srv/style/longterm/books/chap1/nigger.htm</t>
+          <t>https://www.adl.org/education/references/hate-symbols/stormfront</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>stormfront</t>
+          <t>wetback</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2727,28 +2723,6 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
-        <is>
-          <t>https://www.adl.org/education/references/hate-symbols/stormfront</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>wetback</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
         <is>
           <t>https://www.buzzfeednews.com/article/andrewkaczynski/white-supremacists-are-thrilled-donald-trump-mentioned-opera</t>
         </is>
@@ -7393,7 +7367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7504,7 +7478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>black chrsitian</t>
+          <t>black nationalism</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7514,10 +7488,10 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>413</v>
+        <v>781396</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -7525,7 +7499,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>black nationalism</t>
+          <t>black nationalist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7535,10 +7509,10 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>781396</v>
+        <v>521576</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -7546,7 +7520,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>black nationalist</t>
+          <t>blm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7556,10 +7530,10 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>521576</v>
+        <v>3916271</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>257617</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -7567,7 +7541,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>blm</t>
+          <t>blue lives matter</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7577,10 +7551,10 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3916271</v>
+        <v>33232274</v>
       </c>
       <c r="E8" t="n">
-        <v>257617</v>
+        <v>6019</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -7588,7 +7562,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>blue lives matter</t>
+          <t>buddhist fashion</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7598,10 +7572,10 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>33232274</v>
+        <v>659566</v>
       </c>
       <c r="E9" t="n">
-        <v>6019</v>
+        <v>25</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -7609,7 +7583,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>buddhist fashion</t>
+          <t>christian fashion</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7619,10 +7593,10 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>659566</v>
+        <v>20043404</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>2221</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -7630,7 +7604,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>christian fashion</t>
+          <t>christian parenting</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7640,10 +7614,10 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>20043404</v>
+        <v>3187945</v>
       </c>
       <c r="E11" t="n">
-        <v>2221</v>
+        <v>146</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -7651,7 +7625,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>christian parenting</t>
+          <t>climate change</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7661,10 +7635,10 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>3187945</v>
+        <v>8687770</v>
       </c>
       <c r="E12" t="n">
-        <v>146</v>
+        <v>40106</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -7672,7 +7646,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>climate change</t>
+          <t>climate denial</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7682,10 +7656,10 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>8687770</v>
+        <v>1587722</v>
       </c>
       <c r="E13" t="n">
-        <v>40106</v>
+        <v>37</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -7693,7 +7667,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>climate denial</t>
+          <t>hiking gear reviews</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7703,10 +7677,10 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1587722</v>
+        <v>1599289</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>732</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -7714,7 +7688,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hiking gear reviews</t>
+          <t>jewish fashion</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7724,10 +7698,10 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1599289</v>
+        <v>4416025</v>
       </c>
       <c r="E15" t="n">
-        <v>732</v>
+        <v>62</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -7735,7 +7709,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jewish fashion</t>
+          <t>rohingya genocide</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7745,10 +7719,10 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>4416025</v>
+        <v>248872</v>
       </c>
       <c r="E16" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -7756,7 +7730,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rohingya genocide</t>
+          <t>sharia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7766,10 +7740,10 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>248872</v>
+        <v>554084</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -7777,7 +7751,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sharia</t>
+          <t>stop the steal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7787,10 +7761,10 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>554084</v>
+        <v>19563011</v>
       </c>
       <c r="E18" t="n">
-        <v>114</v>
+        <v>57346</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -7798,7 +7772,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>stop the steal</t>
+          <t>terrorists</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7808,10 +7782,10 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>19563011</v>
+        <v>7728461</v>
       </c>
       <c r="E19" t="n">
-        <v>57346</v>
+        <v>14494</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -7819,7 +7793,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>terrorists</t>
+          <t>terrorists acts</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7829,10 +7803,10 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>7728461</v>
+        <v>1604563</v>
       </c>
       <c r="E20" t="n">
-        <v>14494</v>
+        <v>6</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -7840,7 +7814,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>terrorists acts</t>
+          <t>terrorists attack</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7850,10 +7824,10 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1604563</v>
+        <v>1635072</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -7861,7 +7835,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>terrorists attack</t>
+          <t>terrorists hostage</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7871,10 +7845,10 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1635072</v>
+        <v>1606098</v>
       </c>
       <c r="E22" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -7882,7 +7856,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>terrorists hostage</t>
+          <t>terrorists recruitment</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7892,10 +7866,10 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1606098</v>
+        <v>210804</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -7903,7 +7877,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>terrorists recruitment</t>
+          <t>uyghur genocide</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7913,10 +7887,10 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>210804</v>
+        <v>75452</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -7924,7 +7898,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>uyghur genocide</t>
+          <t>voter fraud</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7934,10 +7908,10 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>75452</v>
+        <v>2199847</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>481</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -7945,7 +7919,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>voter fraud</t>
+          <t>white nationalists</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7955,10 +7929,10 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>2199847</v>
+        <v>184113</v>
       </c>
       <c r="E26" t="n">
-        <v>481</v>
+        <v>15</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -7966,7 +7940,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>white nationalists</t>
+          <t>yazidi genocide</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -7976,10 +7950,10 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>184113</v>
+        <v>26672</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -7987,28 +7961,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yazidi genocide</t>
+          <t>american muslims</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>26672</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>56316</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>american muslims</t>
+          <t>black buddhist</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8024,16 +8002,16 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>56316</v>
+        <v>3692</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>black buddhist</t>
+          <t>black christian</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8049,16 +8027,16 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>3692</v>
+        <v>41378</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>black christian</t>
+          <t>black jew</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8074,16 +8052,16 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>41378</v>
+        <v>22622</v>
       </c>
       <c r="G31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>black jew</t>
+          <t>black muslims</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8099,7 +8077,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>22622</v>
+        <v>10449</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -8108,7 +8086,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>black muslims</t>
+          <t>buddhist american</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8124,16 +8102,16 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>10449</v>
+        <v>58</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>buddhist american</t>
+          <t>buddhist parenting</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -8149,7 +8127,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -8158,7 +8136,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>buddhist parenting</t>
+          <t>christian american</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8174,16 +8152,16 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
+        <v>16044</v>
+      </c>
+      <c r="G35" t="n">
         <v>16</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>christian american</t>
+          <t>christian solidarity</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -8199,16 +8177,16 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>16044</v>
+        <v>411</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>christian solidarity</t>
+          <t>jewish american</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8224,16 +8202,16 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>411</v>
+        <v>29074</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jewish american</t>
+          <t>jewish parenting</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8249,16 +8227,16 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>29074</v>
+        <v>425</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jewish parenting</t>
+          <t>jewish solidarity</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -8274,7 +8252,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>425</v>
+        <v>347</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -8283,7 +8261,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>jewish solidarity</t>
+          <t>nazi extermination camps</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8299,7 +8277,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>347</v>
+        <v>442</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -8308,7 +8286,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nazi extermination camps</t>
+          <t>nazi propoganda</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8324,7 +8302,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -8333,7 +8311,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nazi propoganda</t>
+          <t>nazi scientist</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8349,7 +8327,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>320</v>
+        <v>815</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -8358,7 +8336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nazi scientist</t>
+          <t>praise terrorism</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8374,7 +8352,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>815</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -8383,7 +8361,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>praise terrorism</t>
+          <t>praise terrorist</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8399,7 +8377,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -8408,7 +8386,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>praise terrorist</t>
+          <t>recruit terrorist</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8424,7 +8402,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -8433,7 +8411,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>recruit terrorist</t>
+          <t>stolen election</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8449,16 +8427,16 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>29</v>
+        <v>11271</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>stolen election</t>
+          <t>terrorism acts</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8474,16 +8452,16 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>11271</v>
+        <v>374</v>
       </c>
       <c r="G47" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>terrorism acts</t>
+          <t>terrorism attack</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8499,16 +8477,16 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>374</v>
+        <v>11498</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>terrorism attack</t>
+          <t>white christian</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8524,16 +8502,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>11498</v>
+        <v>40699</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>white christian</t>
+          <t>white pills</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8549,16 +8527,16 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>40699</v>
+        <v>8049</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>white pills</t>
+          <t>ww2 nazis</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8574,16 +8552,16 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>8049</v>
+        <v>849</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ww2 nazis</t>
+          <t>muslim ttszozjqoits</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8593,13 +8571,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -8608,7 +8586,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>muslim ttszozjqoits</t>
+          <t>nazi germany</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8618,22 +8596,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>nazi germany</t>
+          <t>neo nazi</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8643,22 +8621,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>46</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>neo nazi</t>
+          <t>sex positive</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8679,7 +8653,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sex positive</t>
+          <t>sexual education</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8700,7 +8674,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sexual education</t>
+          <t>buddhism</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8708,11 +8682,7 @@
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -8721,7 +8691,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>buddhism</t>
+          <t>buddhist</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8738,7 +8708,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>buddhist</t>
+          <t>homosexual</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8755,7 +8725,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>homosexual</t>
+          <t>kikes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8772,7 +8742,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kikes</t>
+          <t>nazis</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8789,7 +8759,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>nazis</t>
+          <t>nazism</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8806,7 +8776,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nazism</t>
+          <t>neo-confederates</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8823,7 +8793,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>neo-confederates</t>
+          <t>neo-nazis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8840,7 +8810,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>neo-nazis</t>
+          <t>neonazi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8857,7 +8827,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>neonazi</t>
+          <t>niggers</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8874,7 +8844,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>niggers</t>
+          <t>scientology</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8891,7 +8861,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>scientology</t>
+          <t>sexuality</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8908,7 +8878,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sexuality</t>
+          <t>wetbacks</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8921,23 +8891,6 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>wetbacks</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/reference/what_is_blocked.xlsx
+++ b/data/reference/what_is_blocked.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hate" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="policy" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="adhoc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="basewords" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="social_justice" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="policy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="adhoc" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="basewords" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2738,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2786,7 +2787,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anti-vaccination</t>
+          <t>abolish ice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2796,10 +2797,10 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>934120</v>
+        <v>272724</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -2807,7 +2808,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bomb making</t>
+          <t>abolish the police</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2817,10 +2818,10 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>28849109</v>
+        <v>366031</v>
       </c>
       <c r="E3" t="n">
-        <v>7714</v>
+        <v>48</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bombings</t>
+          <t>anti-black</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2838,10 +2839,10 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>292809</v>
+        <v>50849865</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>165537</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2849,7 +2850,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bump stocks</t>
+          <t>anti-fascist</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2859,10 +2860,10 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>691166</v>
+        <v>480610</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2870,7 +2871,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>child abuse</t>
+          <t>antiracism</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2880,10 +2881,10 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>7367328</v>
+        <v>199649</v>
       </c>
       <c r="E6" t="n">
-        <v>1510</v>
+        <v>144</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2891,7 +2892,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>child marriage</t>
+          <t>believe black women</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2901,10 +2902,10 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>31523210</v>
+        <v>69444470</v>
       </c>
       <c r="E7" t="n">
-        <v>22286</v>
+        <v>1318</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2912,7 +2913,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cockfighting</t>
+          <t>bipoc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2922,10 +2923,10 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>169409</v>
+        <v>13864</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2933,7 +2934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conterfeit passports</t>
+          <t>black august</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2943,10 +2944,10 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3619424</v>
+        <v>70790580</v>
       </c>
       <c r="E9" t="n">
-        <v>112</v>
+        <v>640977</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2954,7 +2955,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>crime scene photos</t>
+          <t>black dissent</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2964,10 +2965,10 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>23829633</v>
+        <v>301125</v>
       </c>
       <c r="E10" t="n">
-        <v>957</v>
+        <v>11</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2975,7 +2976,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>domestic violence</t>
+          <t>black excellence</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2985,10 +2986,10 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>6958865</v>
+        <v>5766739</v>
       </c>
       <c r="E11" t="n">
-        <v>476</v>
+        <v>186</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2996,7 +2997,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>eating disorders</t>
+          <t>black girls matter</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3006,10 +3007,10 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2549168</v>
+        <v>33247118</v>
       </c>
       <c r="E12" t="n">
-        <v>155</v>
+        <v>8701</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -3017,7 +3018,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ethnic cleansing</t>
+          <t>black hair</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3027,10 +3028,10 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>931039</v>
+        <v>77254889</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>535954</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -3038,7 +3039,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>extremism</t>
+          <t>black identity extremists</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3048,10 +3049,10 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>932201</v>
+        <v>44306</v>
       </c>
       <c r="E14" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -3059,7 +3060,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>forging official documents</t>
+          <t>black in tech</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3069,10 +3070,10 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>161520</v>
+        <v>72299626</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>287600</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>get rich fast</t>
+          <t>black is beautiful</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3090,10 +3091,10 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>52730683</v>
+        <v>186868224</v>
       </c>
       <c r="E16" t="n">
-        <v>5135</v>
+        <v>537955</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -3101,7 +3102,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>harassment</t>
+          <t>black liberation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3111,10 +3112,10 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>4070507</v>
+        <v>2865238</v>
       </c>
       <c r="E17" t="n">
-        <v>10318</v>
+        <v>139</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -3122,7 +3123,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>homemade silencer</t>
+          <t>black panthers</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3132,10 +3133,10 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>450132</v>
+        <v>3293595</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -3143,7 +3144,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>human torture</t>
+          <t>black trans lives matter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3153,10 +3154,10 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>3949225</v>
+        <v>5789332</v>
       </c>
       <c r="E19" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -3164,7 +3165,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>kidnapping</t>
+          <t>civil rights</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3174,10 +3175,10 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>7822690</v>
+        <v>22652003</v>
       </c>
       <c r="E20" t="n">
-        <v>110229</v>
+        <v>436</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -3185,7 +3186,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mass shootings</t>
+          <t>defund the police</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3195,10 +3196,10 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>980196</v>
+        <v>161904</v>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -3206,7 +3207,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>miracle cancer treatment</t>
+          <t>digital justice</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3216,10 +3217,10 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>10329189</v>
+        <v>20761435</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>469</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -3227,7 +3228,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>miracle treatment</t>
+          <t>end police brutality</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3237,10 +3238,10 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>20418957</v>
+        <v>2108298</v>
       </c>
       <c r="E23" t="n">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -3248,7 +3249,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pipe bomb</t>
+          <t>for the culture</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3258,10 +3259,10 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>18304944</v>
+        <v>284044232</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>1290724</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -3269,7 +3270,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>police brutality</t>
+          <t>hijab fashion</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3279,10 +3280,10 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>2165467</v>
+        <v>1118033</v>
       </c>
       <c r="E25" t="n">
-        <v>544</v>
+        <v>781</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -3290,7 +3291,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>praise terrorists</t>
+          <t>i can't breathe</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3300,10 +3301,10 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>913820</v>
+        <v>27207945</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -3311,7 +3312,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>racial discrimination</t>
+          <t>lgbtq+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3321,10 +3322,10 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1938844</v>
+        <v>467636</v>
       </c>
       <c r="E27" t="n">
-        <v>39</v>
+        <v>659</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -3332,7 +3333,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>recruit terrorists</t>
+          <t>movement for black lives</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3342,10 +3343,10 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>592854</v>
+        <v>34738293</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -3353,7 +3354,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>robbery</t>
+          <t>no justice no peace</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3363,10 +3364,10 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>15236682</v>
+        <v>24182882</v>
       </c>
       <c r="E29" t="n">
-        <v>168184</v>
+        <v>248</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -3374,7 +3375,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>self-harm</t>
+          <t>no new jails</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3384,10 +3385,10 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>4030411</v>
+        <v>248414</v>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -3395,7 +3396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>shootings</t>
+          <t>no tech for ice</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3405,10 +3406,10 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>41627733</v>
+        <v>48627267</v>
       </c>
       <c r="E31" t="n">
-        <v>692840</v>
+        <v>618</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -3416,7 +3417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>swatting</t>
+          <t>oscars so white</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3426,10 +3427,10 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>302855</v>
+        <v>3474154</v>
       </c>
       <c r="E32" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -3437,7 +3438,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>violent criminal organizations</t>
+          <t>patriarchy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3447,10 +3448,10 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>1450559</v>
+        <v>172889</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -3458,7 +3459,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>voter eligability</t>
+          <t>qpoc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3468,10 +3469,10 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>67</v>
+        <v>1949</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -3479,7 +3480,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>voter supression</t>
+          <t>queer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3489,10 +3490,10 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>125834</v>
+        <v>1662989</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>9899</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3500,20 +3501,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cannibalism</t>
+          <t>racial injustice</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>5306601</v>
       </c>
       <c r="E36" t="n">
-        <v>12271</v>
+        <v>251</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -3521,20 +3522,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>disparaging</t>
+          <t>racial justice</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2101399</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -3542,20 +3543,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dogfighting</t>
+          <t>repeal the ban</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Partial Block</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>419270</v>
       </c>
       <c r="E38" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -3563,207 +3564,175 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>aids denial</t>
+          <t>say her name</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>65</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>153173549</v>
+      </c>
+      <c r="E39" t="n">
+        <v>441555</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ammunition clips</t>
+          <t>say their names</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>678</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>156323370</v>
+      </c>
+      <c r="E40" t="n">
+        <v>476101</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>animal mating</t>
+          <t>tell black stories</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>72001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>35</v>
-      </c>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>56566840</v>
+      </c>
+      <c r="E41" t="n">
+        <v>128222</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>automatic gun conversion kits</t>
+          <t>white fragility</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>165212</v>
+      </c>
+      <c r="E42" t="n">
+        <v>38</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>black salve</t>
+          <t>wypipo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>8740</v>
-      </c>
-      <c r="G43" t="n">
-        <v>4</v>
-      </c>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>buy alcohol</t>
+          <t>antifascist</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>16087</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>buy organs</t>
+          <t>colonialism</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
-        <v>43</v>
-      </c>
-      <c r="G45" t="n">
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
         <v>1</v>
       </c>
+      <c r="E45" t="n">
+        <v>110</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>buy weed</t>
+          <t>reparations</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
-        <v>26576</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8</v>
-      </c>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>275</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>chewing tobacco</t>
+          <t>american muslim</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3779,16 +3748,16 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>56504</v>
+        <v>80150</v>
       </c>
       <c r="G47" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>execution videos</t>
+          <t>black lives matter</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3804,16 +3773,16 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>3140</v>
+        <v>2029797</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>96118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>explosive vest</t>
+          <t>black power</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3829,16 +3798,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>622</v>
+        <v>566806</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fetish content</t>
+          <t>electoral justice</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3854,16 +3823,16 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>433</v>
+        <v>930</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>firearm scopes</t>
+          <t>i stand with ilhan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3879,16 +3848,16 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>firearm silencer</t>
+          <t>i stand with kaepernick</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3904,16 +3873,16 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>2147</v>
+        <v>25</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>firearm stocks</t>
+          <t>muslim american</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3929,16 +3898,16 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>54</v>
+        <v>49744</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>generate fake credit card numbers</t>
+          <t>muslim fashion</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3954,16 +3923,16 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>99</v>
+        <v>39114</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hunt with bombing</t>
+          <t>muslim parenting</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3979,16 +3948,16 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>550</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incorrect election date</t>
+          <t>muslim solidarity</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4004,7 +3973,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>733</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4013,7 +3982,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>make ammunition</t>
+          <t>no muslim ban ever</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4029,7 +3998,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>476</v>
+        <v>90</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -4038,7 +4007,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>making hard drugs</t>
+          <t>stand with ilhan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4054,7 +4023,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4063,7 +4032,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>minors drinking alcohol</t>
+          <t>white supremacy</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4079,16 +4048,16 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>73</v>
+        <v>309769</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>minors vaping</t>
+          <t>black muslim</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4098,22 +4067,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>miracle mineral solution</t>
+          <t>sex ed</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4123,22 +4092,18 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
-        <v>3548</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>nude photo leaks</t>
+          <t>sex work</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4148,22 +4113,18 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
-        <v>585</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>online pharmacy no prescription</t>
+          <t>sexual liberation</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4173,1773 +4134,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Blocked</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
-        <v>12</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>package bombs</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
-        <v>1568</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>selling firearms</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>2357</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>terrorist acts</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>11166</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>terrorist attack</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
-        <v>485073</v>
-      </c>
-      <c r="G67" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>terrorist hostages</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>terrorist ideology</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>132</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>terrorist recruitment</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
-        <v>506</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>text your vote</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="n">
-        <v>287</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>video game terrorist mod</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
-        <v>13</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>bullfighting swords in bull</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>buy drugs on the dark web</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>cannibus coffee shops</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>dramatized rape scenes</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>threads with firearms</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>3d print guns</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>dog fighting</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>make firearm</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>make high capacity ammunition</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Partial Block</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>covid-19 asian food</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>covid-19 doesn't exist</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>covid-19 from 5g</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>covid-19 guaranteed vaccine</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>covid-19 home remedy</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>covid-19 people don't die</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>covid-19 prayer</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>covid-19 ritual</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>covid-19 vaccine kills people</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>crystal meth</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>erotic massage services</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>escort services</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>molotov cocktail</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>online gambling</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>rolling papers</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>sex industry</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>sex services</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>sex toys</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>sexual abuse</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>sexual acts</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>sexual device</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>sexual fetishes</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>sexual fluids</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>sexual gratification</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>sexual harassment</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>sexually explict content</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>sexually unwanted acts</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>vape pens</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>you'll make $50,000 tomorrow with this plan!</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>abortion</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>alcohol</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ammunition</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>beastiality</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>beheading</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>bongs</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>cigarettes</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>cigars</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>cocaine</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>coronavirus</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>covid</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>covid-19</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>e-cigarettes</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ecstasy</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>firearm</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>firearms</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>fuck</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>genitalia</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>gun-grips</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>handguns</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>heroin</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>incest</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>intercourse</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>marijuana</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>masturbation</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>mephedrone</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>nipples</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>nudity</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>pedophilia</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>pornography</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>prostitution</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>rape</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>rifles</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>steroids</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>suicide</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>terrorism</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>upskirt</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>vapes</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>vaping</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>voyeurism</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Blocked</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5952,7 +4153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6000,7 +4201,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anti-vax</t>
+          <t>anti-vaccination</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6010,10 +4211,10 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>340458</v>
+        <v>934120</v>
       </c>
       <c r="E2" t="n">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -6021,7 +4222,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>anti-vaxx</t>
+          <t>bomb making</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6031,10 +4232,10 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>22240</v>
+        <v>28849109</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>7714</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -6042,7 +4243,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>climate change</t>
+          <t>bombings</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6052,10 +4253,10 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>8687770</v>
+        <v>292809</v>
       </c>
       <c r="E4" t="n">
-        <v>40106</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -6063,7 +4264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>climate denial</t>
+          <t>bump stocks</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6073,10 +4274,10 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1587722</v>
+        <v>691166</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -6084,7 +4285,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hiking gear reviews</t>
+          <t>child abuse</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6094,10 +4295,10 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1599289</v>
+        <v>7367328</v>
       </c>
       <c r="E6" t="n">
-        <v>732</v>
+        <v>1510</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -6105,7 +4306,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rohingya genocide</t>
+          <t>child marriage</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6115,10 +4316,10 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>248872</v>
+        <v>31523210</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>22286</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -6126,7 +4327,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>stop the steal</t>
+          <t>cockfighting</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6136,10 +4337,10 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>19563011</v>
+        <v>169409</v>
       </c>
       <c r="E8" t="n">
-        <v>57346</v>
+        <v>46</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -6147,7 +4348,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>terrorists</t>
+          <t>conterfeit passports</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6157,10 +4358,10 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>7728461</v>
+        <v>3619424</v>
       </c>
       <c r="E9" t="n">
-        <v>14494</v>
+        <v>112</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -6168,7 +4369,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>terrorists acts</t>
+          <t>crime scene photos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6178,10 +4379,10 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1604563</v>
+        <v>23829633</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>957</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -6189,7 +4390,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>terrorists attack</t>
+          <t>domestic violence</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6199,10 +4400,10 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1635072</v>
+        <v>6958865</v>
       </c>
       <c r="E11" t="n">
-        <v>58</v>
+        <v>476</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -6210,7 +4411,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>terrorists hostage</t>
+          <t>eating disorders</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -6220,10 +4421,10 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1606098</v>
+        <v>2549168</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -6231,7 +4432,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>terrorists recruitment</t>
+          <t>ethnic cleansing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -6241,10 +4442,10 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>210804</v>
+        <v>931039</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -6252,7 +4453,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>uyghur genocide</t>
+          <t>extremism</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6262,10 +4463,10 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>75452</v>
+        <v>932201</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -6273,7 +4474,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>voter fraud</t>
+          <t>forging official documents</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6283,10 +4484,10 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>2199847</v>
+        <v>161520</v>
       </c>
       <c r="E15" t="n">
-        <v>481</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -6294,7 +4495,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>white nationalists</t>
+          <t>get rich fast</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -6304,10 +4505,10 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>184113</v>
+        <v>52730683</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>5135</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -6315,7 +4516,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>yazidi genocide</t>
+          <t>harassment</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -6325,10 +4526,10 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>26672</v>
+        <v>4070507</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10318</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -6336,359 +4537,2824 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>kikes</t>
+          <t>homemade silencer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>450132</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nazi extermination camps</t>
+          <t>human torture</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>3949225</v>
+      </c>
+      <c r="E19" t="n">
+        <v>92</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nazi germany</t>
+          <t>kidnapping</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>7822690</v>
+      </c>
+      <c r="E20" t="n">
+        <v>110229</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nazi propoganda</t>
+          <t>mass shootings</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>980196</v>
+      </c>
+      <c r="E21" t="n">
+        <v>74</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nazi scientist</t>
+          <t>miracle cancer treatment</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>10329189</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nazis</t>
+          <t>miracle treatment</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>20418957</v>
+      </c>
+      <c r="E23" t="n">
+        <v>209</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nazism</t>
+          <t>pipe bomb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>18304944</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>neo nazi</t>
+          <t>police brutality</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>2165467</v>
+      </c>
+      <c r="E25" t="n">
+        <v>544</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>neo-confederates</t>
+          <t>praise terrorists</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>913820</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neo-nazis</t>
+          <t>racial discrimination</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1938844</v>
+      </c>
+      <c r="E27" t="n">
+        <v>39</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>neonazi</t>
+          <t>recruit terrorists</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>592854</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>niggers</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>15236682</v>
+      </c>
+      <c r="E29" t="n">
+        <v>168184</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>praise terrorism</t>
+          <t>self-harm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>4030411</v>
+      </c>
+      <c r="E30" t="n">
+        <v>185</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>praise terrorist</t>
+          <t>shootings</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>41627733</v>
+      </c>
+      <c r="E31" t="n">
+        <v>692840</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>recruit terrorist</t>
+          <t>swatting</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>302855</v>
+      </c>
+      <c r="E32" t="n">
+        <v>151</v>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>stolen election</t>
+          <t>violent criminal organizations</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1450559</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>terrorism acts</t>
+          <t>voter eligability</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>67</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>terrorism attack</t>
+          <t>voter supression</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>125834</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wetbacks</t>
+          <t>cannibalism</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12271</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>white pills</t>
+          <t>disparaging</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>27</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ww2 nazis</t>
+          <t>dogfighting</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Blocked</t>
+          <t>Partial Block</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>81</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>aids denial</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>65</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ammunition clips</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>678</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>animal mating</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>72001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>automatic gun conversion kits</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>black salve</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>8740</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>buy alcohol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>16087</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>buy organs</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>43</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>buy weed</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>26576</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>chewing tobacco</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>56504</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>execution videos</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>explosive vest</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>622</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>fetish content</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>433</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>firearm scopes</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>firearm silencer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>2147</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>firearm stocks</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>54</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>generate fake credit card numbers</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>99</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hunt with bombing</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>incorrect election date</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>13</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>make ammunition</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>476</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>making hard drugs</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>minors drinking alcohol</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>73</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>minors vaping</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>14</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>miracle mineral solution</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>3548</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>nude photo leaks</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>585</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>online pharmacy no prescription</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>package bombs</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>1568</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>selling firearms</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>2357</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>terrorist acts</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>11166</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>terrorist attack</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>485073</v>
+      </c>
+      <c r="G67" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>terrorist hostages</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>terrorist ideology</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>132</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>terrorist recruitment</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>506</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>text your vote</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>287</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>video game terrorist mod</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>13</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>bullfighting swords in bull</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>buy drugs on the dark web</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>cannibus coffee shops</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dramatized rape scenes</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>threads with firearms</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3d print guns</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>dog fighting</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>make firearm</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>make high capacity ammunition</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>covid-19 asian food</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>covid-19 doesn't exist</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>covid-19 from 5g</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>covid-19 guaranteed vaccine</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>covid-19 home remedy</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>covid-19 people don't die</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>covid-19 prayer</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>covid-19 ritual</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>covid-19 vaccine kills people</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>crystal meth</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>erotic massage services</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>escort services</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>molotov cocktail</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>online gambling</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rolling papers</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sex industry</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sex services</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>sex toys</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sexual abuse</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sexual acts</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sexual device</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sexual fetishes</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sexual fluids</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sexual gratification</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sexual harassment</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sexually explict content</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sexually unwanted acts</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>vape pens</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>you'll make $50,000 tomorrow with this plan!</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>abortion</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>alcohol</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ammunition</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>beastiality</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>beheading</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>bongs</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>cigarettes</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>cigars</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>cocaine</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>coronavirus</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>covid</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>covid-19</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>e-cigarettes</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ecstasy</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>firearm</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>firearms</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>genitalia</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>gun-grips</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>handguns</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>heroin</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>incest</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>intercourse</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>marijuana</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>masturbation</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>mephedrone</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>nipples</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>nudity</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>pedophilia</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>pornography</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>prostitution</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>rape</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>rifles</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>steroids</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>suicide</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>terrorism</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>upskirt</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>vapes</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>vaping</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>voyeurism</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6696,6 +7362,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>search_term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>status_no_spaces</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n_youtube_videos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>n_youtube_channels</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_youtube_videos_no_spaces</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_youtube_channels_no_spaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>all lives matter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>33201258</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96716</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>anti-vax</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>340458</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>anti-vaxx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>22240</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>black nationalism</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>781396</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>black nationalist</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>521576</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>blm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>3916271</v>
+      </c>
+      <c r="E7" t="n">
+        <v>257617</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>blue lives matter</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>33232274</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6019</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>buddhist fashion</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>659566</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>christian fashion</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>20043404</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2221</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>christian parenting</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>3187945</v>
+      </c>
+      <c r="E11" t="n">
+        <v>146</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>8687770</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40106</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>climate denial</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1587722</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hiking gear reviews</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1599289</v>
+      </c>
+      <c r="E14" t="n">
+        <v>732</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>jewish fashion</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>4416025</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rohingya genocide</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>248872</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sharia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>554084</v>
+      </c>
+      <c r="E17" t="n">
+        <v>114</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>stop the steal</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>19563011</v>
+      </c>
+      <c r="E18" t="n">
+        <v>57346</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>terrorists</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>7728461</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14494</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>terrorists acts</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1604563</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>terrorists attack</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1635072</v>
+      </c>
+      <c r="E21" t="n">
+        <v>58</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>terrorists hostage</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1606098</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>terrorists recruitment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>210804</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>uyghur genocide</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>75452</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>voter fraud</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>2199847</v>
+      </c>
+      <c r="E25" t="n">
+        <v>481</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>white nationalists</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>184113</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>yazidi genocide</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>26672</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>american muslims</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>56316</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>black buddhist</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3692</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>black christian</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>41378</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>black jew</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>22622</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>black muslims</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>10449</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>buddhist american</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>58</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>buddhist parenting</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>16</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>christian american</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>16044</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>christian solidarity</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>411</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>jewish american</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>29074</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>jewish parenting</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>425</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>jewish solidarity</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>347</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>nazi extermination camps</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>442</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>nazi propoganda</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>320</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>nazi scientist</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>815</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>praise terrorism</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>praise terrorist</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>15</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>recruit terrorist</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>29</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>stolen election</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>11271</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>terrorism acts</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>374</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>terrorism attack</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>11498</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>white christian</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>40699</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>white pills</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>8049</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ww2 nazis</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>849</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>muslim ttszozjqoits</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>nazi germany</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Partial Block</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>neo nazi</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sex positive</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sexual education</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>buddhism</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>buddhist</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>homosexual</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kikes</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>nazis</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>nazism</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>neo-confederates</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>neo-nazis</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>neonazi</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>niggers</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>scientology</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sexuality</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>wetbacks</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
